--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -680,7 +680,7 @@
         <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="S2" t="n">
         <v>6.4</v>
@@ -692,10 +692,10 @@
         <v>11.25</v>
       </c>
       <c r="V2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X2" t="n">
         <v>7.7</v>
@@ -1146,10 +1146,10 @@
         <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="M6" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="N6" t="n">
         <v>1.4</v>
@@ -1756,10 +1756,10 @@
         <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="N11" t="n">
         <v>1.36</v>
@@ -1777,13 +1777,13 @@
         <v>12</v>
       </c>
       <c r="S11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="V11" t="n">
         <v>34</v>
@@ -1792,10 +1792,10 @@
         <v>41</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z11" t="n">
         <v>15</v>
@@ -1819,16 +1819,16 @@
         <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
         <v>251</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -2069,10 +2069,10 @@
         <v>401</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -2122,10 +2122,10 @@
         <v>2.75</v>
       </c>
       <c r="L14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="N14" t="n">
         <v>1.5</v>
@@ -2191,10 +2191,10 @@
         <v>401</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2482,10 +2482,10 @@
         <v>2.1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
         <v>2.05</v>
@@ -2604,10 +2604,10 @@
         <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L18" t="n">
         <v>2.1</v>
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H24" t="n">
         <v>4.33</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J24" t="n">
         <v>1.22</v>
@@ -3162,10 +3162,10 @@
         <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="M24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="N24" t="n">
         <v>1.33</v>
@@ -3219,7 +3219,7 @@
         <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
@@ -3406,10 +3406,10 @@
         <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="M26" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
         <v>1.4</v>
@@ -3720,10 +3720,10 @@
         <v>1.73</v>
       </c>
       <c r="N30" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O30" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="P30" t="n">
         <v>1.83</v>
@@ -3842,7 +3842,7 @@
         <v>1.93</v>
       </c>
       <c r="N31" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="O31" t="n">
         <v>2.75</v>
@@ -3964,7 +3964,7 @@
         <v>1.93</v>
       </c>
       <c r="N32" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="O32" t="n">
         <v>2.75</v>
@@ -4065,25 +4065,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="J33" t="n">
         <v>1.37</v>
       </c>
       <c r="K33" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="L33" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N33" t="n">
         <v>1.42</v>
@@ -4092,55 +4092,55 @@
         <v>2.67</v>
       </c>
       <c r="P33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R33" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="S33" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="T33" t="n">
         <v>9.75</v>
       </c>
       <c r="U33" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V33" t="n">
         <v>23</v>
       </c>
       <c r="W33" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X33" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y33" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="Z33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA33" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE33" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG33" t="n">
         <v>35</v>
@@ -4152,7 +4152,7 @@
         <v>1.08</v>
       </c>
       <c r="AJ33" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J2" t="n">
         <v>1.39</v>
@@ -674,58 +674,58 @@
         <v>2.32</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="S2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T2" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U2" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="W2" t="n">
         <v>37</v>
       </c>
       <c r="X2" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD2" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="n">
         <v>101</v>
@@ -1009,13 +1009,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J5" t="n">
         <v>1.57</v>
@@ -1146,10 +1146,10 @@
         <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="M6" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="N6" t="n">
         <v>1.4</v>
@@ -1396,10 +1396,10 @@
         <v>1.57</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P8" t="n">
         <v>2.25</v>
@@ -1408,7 +1408,7 @@
         <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="S8" t="n">
         <v>6.5</v>
@@ -1432,7 +1432,7 @@
         <v>7</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>81</v>
@@ -1756,10 +1756,10 @@
         <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="M11" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>1.36</v>
@@ -1985,40 +1985,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
         <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="K13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L13" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="N13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O13" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="S13" t="n">
         <v>12</v>
@@ -2030,10 +2030,10 @@
         <v>29</v>
       </c>
       <c r="V13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X13" t="n">
         <v>8</v>
@@ -2042,37 +2042,37 @@
         <v>6.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J16" t="n">
         <v>1.2</v>
@@ -2366,10 +2366,10 @@
         <v>4.33</v>
       </c>
       <c r="L16" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="M16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N16" t="n">
         <v>1.33</v>
@@ -2378,10 +2378,10 @@
         <v>3.25</v>
       </c>
       <c r="P16" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R16" t="n">
         <v>15</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
@@ -2482,10 +2482,10 @@
         <v>2.1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L17" t="n">
         <v>2.05</v>
@@ -2506,7 +2506,7 @@
         <v>1.95</v>
       </c>
       <c r="R17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="S17" t="n">
         <v>17</v>
@@ -2515,13 +2515,13 @@
         <v>12</v>
       </c>
       <c r="U17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V17" t="n">
         <v>29</v>
       </c>
       <c r="W17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X17" t="n">
         <v>9</v>
@@ -2536,19 +2536,19 @@
         <v>51</v>
       </c>
       <c r="AB17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>9</v>
       </c>
       <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
         <v>19</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>29</v>
@@ -2557,10 +2557,10 @@
         <v>301</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -2716,34 +2716,82 @@
           <t>Tallinna Kalev</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.9</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.55</v>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="R19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W19" t="n">
+        <v>16</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>200</v>
+      </c>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
     </row>
@@ -2778,34 +2826,82 @@
           <t>Kuressaare</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>16</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.1</v>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R20" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>9</v>
+      </c>
+      <c r="W20" t="n">
+        <v>26</v>
+      </c>
+      <c r="X20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>600</v>
+      </c>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
     </row>
@@ -2840,34 +2936,86 @@
           <t>Flora</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.29</v>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
+      <c r="P21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R21" t="n">
+        <v>14</v>
+      </c>
+      <c r="S21" t="n">
+        <v>27</v>
+      </c>
+      <c r="T21" t="n">
+        <v>13</v>
+      </c>
+      <c r="U21" t="n">
+        <v>80</v>
+      </c>
+      <c r="V21" t="n">
+        <v>35</v>
+      </c>
+      <c r="W21" t="n">
+        <v>35</v>
+      </c>
+      <c r="X21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>101</v>
+      </c>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
     </row>
@@ -3034,16 +3182,16 @@
         <v>2.1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M23" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="N23" t="n">
         <v>1.4</v>
@@ -3512,34 +3660,82 @@
           <t>Metta</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>23</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.4</v>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
+      <c r="P27" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R27" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="S27" t="n">
+        <v>6</v>
+      </c>
+      <c r="T27" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="U27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W27" t="n">
+        <v>29</v>
+      </c>
+      <c r="X27" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>300</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>400</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>101</v>
+      </c>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
     </row>
@@ -3714,16 +3910,16 @@
         <v>3.25</v>
       </c>
       <c r="L30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="M30" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="N30" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O30" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="P30" t="n">
         <v>1.83</v>
@@ -3830,19 +4026,19 @@
         <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M31" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="N31" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="O31" t="n">
         <v>2.75</v>
@@ -3943,7 +4139,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H32" t="n">
         <v>4</v>
@@ -3964,7 +4160,7 @@
         <v>1.93</v>
       </c>
       <c r="N32" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="O32" t="n">
         <v>2.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -647,85 +647,85 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.65</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.6</v>
-      </c>
       <c r="R2" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="S2" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U2" t="n">
-        <v>11.75</v>
+        <v>16</v>
       </c>
       <c r="V2" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="W2" t="n">
         <v>37</v>
       </c>
       <c r="X2" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AH2" t="n">
         <v>101</v>
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>1.36</v>
@@ -926,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="T4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
         <v>21</v>
@@ -938,7 +938,7 @@
         <v>29</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
         <v>6.5</v>
@@ -956,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>34</v>
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
         <v>1.29</v>
@@ -1146,10 +1146,10 @@
         <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="M6" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="N6" t="n">
         <v>1.4</v>
@@ -1194,7 +1194,7 @@
         <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
@@ -1384,10 +1384,10 @@
         <v>5.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L8" t="n">
         <v>2.38</v>
@@ -1619,13 +1619,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>1.36</v>
@@ -1655,7 +1655,7 @@
         <v>7.5</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T10" t="n">
         <v>9.5</v>
@@ -1703,10 +1703,10 @@
         <v>301</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1750,10 +1750,10 @@
         <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>1.85</v>
@@ -1768,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>12</v>
@@ -1795,7 +1795,7 @@
         <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="n">
         <v>15</v>
@@ -1822,13 +1822,13 @@
         <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
         <v>1.44</v>
@@ -2000,10 +2000,10 @@
         <v>2.63</v>
       </c>
       <c r="L13" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="N13" t="n">
         <v>1.53</v>
@@ -2012,10 +2012,10 @@
         <v>2.38</v>
       </c>
       <c r="P13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
         <v>7</v>
@@ -2036,28 +2036,28 @@
         <v>41</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
         <v>67</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
         <v>11</v>
       </c>
-      <c r="AD13" t="n">
-        <v>10</v>
-      </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
@@ -2066,7 +2066,7 @@
         <v>41</v>
       </c>
       <c r="AH13" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AI13" t="n">
         <v>1.08</v>
@@ -2107,13 +2107,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J14" t="n">
         <v>1.4</v>
@@ -2140,16 +2140,16 @@
         <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="S14" t="n">
         <v>12</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V14" t="n">
         <v>23</v>
@@ -2161,16 +2161,16 @@
         <v>8</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z14" t="n">
         <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC14" t="n">
         <v>12</v>
@@ -2188,13 +2188,13 @@
         <v>34</v>
       </c>
       <c r="AH14" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2316,7 +2316,7 @@
         <v>1.06</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2557,10 +2557,10 @@
         <v>301</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -2772,7 +2772,7 @@
         <v>40</v>
       </c>
       <c r="AB19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC19" t="n">
         <v>35</v>
@@ -2830,10 +2830,10 @@
         <v>1.11</v>
       </c>
       <c r="H20" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I20" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2846,19 +2846,19 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="R20" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="S20" t="n">
         <v>5.9</v>
       </c>
       <c r="T20" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U20" t="n">
         <v>5.7</v>
@@ -2870,34 +2870,34 @@
         <v>26</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y20" t="n">
         <v>14</v>
       </c>
       <c r="Z20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB20" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC20" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD20" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AE20" t="n">
         <v>600</v>
       </c>
       <c r="AF20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AG20" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AH20" t="n">
         <v>600</v>
@@ -2937,13 +2937,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="J21" t="n">
         <v>1.17</v>
@@ -2952,69 +2952,69 @@
         <v>4.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M21" t="n">
-        <v>2.29</v>
+        <v>2.18</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="R21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S21" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="T21" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="U21" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="V21" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="W21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AA21" t="n">
         <v>45</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.6</v>
+        <v>8.75</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="AG21" t="n">
         <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
@@ -3087,7 +3087,7 @@
         <v>7.5</v>
       </c>
       <c r="S22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="T22" t="n">
         <v>8.5</v>
@@ -3126,7 +3126,7 @@
         <v>51</v>
       </c>
       <c r="AF22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
         <v>41</v>
@@ -3135,10 +3135,10 @@
         <v>251</v>
       </c>
       <c r="AI22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -3173,13 +3173,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>1.25</v>
@@ -3188,7 +3188,7 @@
         <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="M23" t="n">
         <v>1.95</v>
@@ -3200,7 +3200,7 @@
         <v>2.75</v>
       </c>
       <c r="P23" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
@@ -3209,16 +3209,16 @@
         <v>11</v>
       </c>
       <c r="S23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T23" t="n">
         <v>12</v>
       </c>
       <c r="U23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W23" t="n">
         <v>34</v>
@@ -3230,7 +3230,7 @@
         <v>6.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA23" t="n">
         <v>41</v>
@@ -3239,7 +3239,7 @@
         <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
         <v>9</v>
@@ -3322,10 +3322,10 @@
         <v>3.25</v>
       </c>
       <c r="P24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
         <v>7.5</v>
@@ -3367,7 +3367,7 @@
         <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
@@ -3432,10 +3432,10 @@
         <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="M25" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="N25" t="n">
         <v>1.36</v>
@@ -3444,7 +3444,7 @@
         <v>3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Q25" t="n">
         <v>2</v>
@@ -3557,22 +3557,22 @@
         <v>1.85</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Q26" t="n">
         <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="S26" t="n">
         <v>13</v>
@@ -3587,10 +3587,10 @@
         <v>21</v>
       </c>
       <c r="W26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
         <v>6.5</v>
@@ -3617,10 +3617,10 @@
         <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH26" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AI26" t="n">
         <v>1.05</v>
@@ -3664,10 +3664,10 @@
         <v>1.08</v>
       </c>
       <c r="H27" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="I27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3701,7 +3701,7 @@
         <v>9.25</v>
       </c>
       <c r="W27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X27" t="n">
         <v>21</v>
@@ -3716,7 +3716,7 @@
         <v>120</v>
       </c>
       <c r="AB27" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC27" t="n">
         <v>300</v>
@@ -3731,7 +3731,7 @@
         <v>400</v>
       </c>
       <c r="AG27" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH27" t="n">
         <v>101</v>
@@ -3770,34 +3770,86 @@
           <t>PDRM FC</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.46</v>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
+      <c r="P28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U28" t="n">
+        <v>8</v>
+      </c>
+      <c r="V28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>17</v>
+      </c>
+      <c r="X28" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>101</v>
+      </c>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
     </row>
@@ -3832,34 +3884,90 @@
           <t>Kedah</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>11</v>
+      </c>
+      <c r="W29" t="n">
+        <v>40</v>
+      </c>
+      <c r="X29" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>101</v>
+      </c>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
     </row>
@@ -3931,7 +4039,7 @@
         <v>7.5</v>
       </c>
       <c r="S30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T30" t="n">
         <v>9.5</v>
@@ -3964,7 +4072,7 @@
         <v>15</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
         <v>34</v>
@@ -3976,13 +4084,13 @@
         <v>34</v>
       </c>
       <c r="AH30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AI30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -4026,22 +4134,22 @@
         <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="M31" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="N31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
         <v>1.83</v>
@@ -4062,13 +4170,13 @@
         <v>13</v>
       </c>
       <c r="V31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W31" t="n">
         <v>26</v>
       </c>
       <c r="X31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
         <v>7</v>
@@ -4098,7 +4206,7 @@
         <v>41</v>
       </c>
       <c r="AH31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AI31" t="n">
         <v>1.05</v>
@@ -4145,19 +4253,19 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="N32" t="n">
         <v>1.4</v>
@@ -4166,13 +4274,13 @@
         <v>2.75</v>
       </c>
       <c r="P32" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="S32" t="n">
         <v>6.5</v>
@@ -4187,10 +4295,10 @@
         <v>13</v>
       </c>
       <c r="W32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y32" t="n">
         <v>8</v>
@@ -4226,7 +4334,7 @@
         <v>1.06</v>
       </c>
       <c r="AJ32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="33">
@@ -4264,16 +4372,16 @@
         <v>2.7</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I33" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="J33" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="K33" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="L33" t="n">
         <v>2.1</v>
@@ -4285,7 +4393,7 @@
         <v>1.42</v>
       </c>
       <c r="O33" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="P33" t="n">
         <v>1.8</v>
@@ -4294,7 +4402,7 @@
         <v>1.91</v>
       </c>
       <c r="R33" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="S33" t="n">
         <v>13.5</v>
@@ -4312,13 +4420,13 @@
         <v>32</v>
       </c>
       <c r="X33" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y33" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z33" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA33" t="n">
         <v>70</v>
@@ -4330,13 +4438,13 @@
         <v>12.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE33" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG33" t="n">
         <v>35</v>
@@ -4345,10 +4453,10 @@
         <v>600</v>
       </c>
       <c r="AI33" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AJ33" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
         <v>1.42</v>
@@ -671,61 +671,61 @@
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="T2" t="n">
         <v>8.75</v>
       </c>
       <c r="U2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="W2" t="n">
         <v>37</v>
       </c>
       <c r="X2" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Y2" t="n">
         <v>6.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AH2" t="n">
         <v>101</v>
@@ -765,25 +765,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="K3" t="n">
         <v>3.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="N3" t="n">
         <v>1.44</v>
@@ -798,7 +798,7 @@
         <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="S3" t="n">
         <v>12</v>
@@ -831,7 +831,7 @@
         <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
         <v>10</v>
@@ -849,7 +849,7 @@
         <v>301</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AJ3" t="n">
         <v>9</v>
@@ -896,7 +896,7 @@
         <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="K4" t="n">
         <v>3.2</v>
@@ -971,7 +971,7 @@
         <v>301</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
@@ -1009,19 +1009,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="L5" t="n">
         <v>2.75</v>
@@ -1030,10 +1030,10 @@
         <v>1.44</v>
       </c>
       <c r="N5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P5" t="n">
         <v>2.38</v>
@@ -1045,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="S5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -1093,7 +1093,7 @@
         <v>501</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AJ5" t="n">
         <v>6.5</v>
@@ -1140,16 +1140,16 @@
         <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="M6" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="N6" t="n">
         <v>1.4</v>
@@ -1215,7 +1215,7 @@
         <v>201</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
@@ -1253,19 +1253,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="K7" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L7" t="n">
         <v>2.3</v>
@@ -1274,10 +1274,10 @@
         <v>1.62</v>
       </c>
       <c r="N7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -1289,7 +1289,7 @@
         <v>6.5</v>
       </c>
       <c r="S7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="T7" t="n">
         <v>9.5</v>
@@ -1319,10 +1319,10 @@
         <v>7.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>34</v>
@@ -1337,7 +1337,7 @@
         <v>501</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AJ7" t="n">
         <v>8</v>
@@ -1384,10 +1384,10 @@
         <v>5.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="K8" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="L8" t="n">
         <v>2.38</v>
@@ -1459,7 +1459,7 @@
         <v>451</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AJ8" t="n">
         <v>8</v>
@@ -1581,10 +1581,10 @@
         <v>401</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1744,16 +1744,16 @@
         <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
         <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
         <v>1.85</v>
@@ -1950,7 +1950,7 @@
         <v>1.04</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1985,37 +1985,37 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
         <v>2.6</v>
       </c>
       <c r="J13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
         <v>7</v>
@@ -2036,22 +2036,22 @@
         <v>41</v>
       </c>
       <c r="X13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="n">
         <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
         <v>67</v>
       </c>
       <c r="AB13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
@@ -2060,19 +2060,19 @@
         <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
         <v>41</v>
       </c>
       <c r="AH13" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2113,19 +2113,19 @@
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="K14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="M14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="N14" t="n">
         <v>1.5</v>
@@ -2140,10 +2140,10 @@
         <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="S14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T14" t="n">
         <v>11</v>
@@ -2158,7 +2158,7 @@
         <v>34</v>
       </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y14" t="n">
         <v>6</v>
@@ -2191,10 +2191,10 @@
         <v>351</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2238,16 +2238,16 @@
         <v>2.75</v>
       </c>
       <c r="J15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="M15" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="N15" t="n">
         <v>1.44</v>
@@ -2280,7 +2280,7 @@
         <v>29</v>
       </c>
       <c r="X15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
         <v>6.5</v>
@@ -2298,7 +2298,7 @@
         <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>29</v>
@@ -2313,10 +2313,10 @@
         <v>251</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J17" t="n">
         <v>1.33</v>
@@ -2500,28 +2500,28 @@
         <v>2.63</v>
       </c>
       <c r="P17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="S17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V17" t="n">
         <v>29</v>
       </c>
       <c r="W17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X17" t="n">
         <v>9</v>
@@ -2536,19 +2536,19 @@
         <v>51</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
         <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>29</v>
@@ -2557,10 +2557,10 @@
         <v>301</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -2595,19 +2595,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="K18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
         <v>2.1</v>
@@ -2622,22 +2622,22 @@
         <v>2.63</v>
       </c>
       <c r="P18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="S18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="T18" t="n">
         <v>8.5</v>
       </c>
       <c r="U18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V18" t="n">
         <v>15</v>
@@ -2652,16 +2652,16 @@
         <v>7</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD18" t="n">
         <v>15</v>
@@ -2676,7 +2676,7 @@
         <v>41</v>
       </c>
       <c r="AH18" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AI18" t="n">
         <v>1.06</v>
@@ -2830,10 +2830,10 @@
         <v>1.11</v>
       </c>
       <c r="H20" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I20" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2846,58 +2846,58 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="R20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="S20" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="T20" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="V20" t="n">
         <v>9</v>
       </c>
       <c r="W20" t="n">
+        <v>25</v>
+      </c>
+      <c r="X20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z20" t="n">
         <v>26</v>
       </c>
-      <c r="X20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>28</v>
-      </c>
       <c r="AA20" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB20" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC20" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD20" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="n">
         <v>600</v>
       </c>
       <c r="AF20" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AH20" t="n">
         <v>600</v>
@@ -2937,84 +2937,84 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="J21" t="n">
         <v>1.17</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.53</v>
       </c>
       <c r="M21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="R21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S21" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T21" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="U21" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="V21" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="W21" t="n">
+        <v>32</v>
+      </c>
+      <c r="X21" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA21" t="n">
         <v>37</v>
       </c>
-      <c r="X21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>45</v>
-      </c>
       <c r="AB21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
         <v>9.25</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
@@ -3173,13 +3173,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J23" t="n">
         <v>1.25</v>
@@ -3188,7 +3188,7 @@
         <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="M23" t="n">
         <v>1.95</v>
@@ -3200,7 +3200,7 @@
         <v>2.75</v>
       </c>
       <c r="P23" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
@@ -3212,7 +3212,7 @@
         <v>19</v>
       </c>
       <c r="T23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U23" t="n">
         <v>41</v>
@@ -3239,16 +3239,16 @@
         <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD23" t="n">
         <v>9</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
         <v>26</v>
@@ -3322,10 +3322,10 @@
         <v>3.25</v>
       </c>
       <c r="P24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R24" t="n">
         <v>7.5</v>
@@ -3432,10 +3432,10 @@
         <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M25" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="N25" t="n">
         <v>1.36</v>
@@ -3444,7 +3444,7 @@
         <v>3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q25" t="n">
         <v>2</v>
@@ -3557,7 +3557,7 @@
         <v>1.85</v>
       </c>
       <c r="M26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
         <v>1.36</v>
@@ -3566,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q26" t="n">
         <v>2.1</v>
@@ -3664,10 +3664,10 @@
         <v>1.08</v>
       </c>
       <c r="H27" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3680,10 +3680,10 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R27" t="n">
         <v>9.25</v>
@@ -3707,7 +3707,7 @@
         <v>21</v>
       </c>
       <c r="Y27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z27" t="n">
         <v>32</v>
@@ -3716,13 +3716,13 @@
         <v>120</v>
       </c>
       <c r="AB27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AC27" t="n">
         <v>300</v>
       </c>
       <c r="AD27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE27" t="n">
         <v>101</v>
@@ -3885,76 +3885,76 @@
         </is>
       </c>
       <c r="G29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="N29" t="n">
         <v>1.38</v>
       </c>
-      <c r="H29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.4</v>
-      </c>
       <c r="O29" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P29" t="n">
-        <v>2.49</v>
+        <v>2.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="R29" t="n">
         <v>4.1</v>
       </c>
       <c r="S29" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="T29" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U29" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="V29" t="n">
         <v>11</v>
       </c>
       <c r="W29" t="n">
+        <v>50</v>
+      </c>
+      <c r="X29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z29" t="n">
         <v>40</v>
-      </c>
-      <c r="X29" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>24</v>
       </c>
       <c r="AA29" t="n">
         <v>101</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AC29" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AD29" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AE29" t="n">
         <v>101</v>
@@ -4003,13 +4003,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
         <v>1.33</v>
@@ -4036,7 +4036,7 @@
         <v>1.83</v>
       </c>
       <c r="R30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4078,19 +4078,19 @@
         <v>34</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="n">
         <v>301</v>
       </c>
       <c r="AI30" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -4134,16 +4134,16 @@
         <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="M31" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
         <v>1.36</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H32" t="n">
         <v>4</v>
@@ -4283,10 +4283,10 @@
         <v>6</v>
       </c>
       <c r="S32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="T32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U32" t="n">
         <v>9.5</v>
@@ -4301,13 +4301,13 @@
         <v>9.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z32" t="n">
         <v>21</v>
       </c>
       <c r="AA32" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="n">
         <v>15</v>
@@ -4331,10 +4331,10 @@
         <v>900</v>
       </c>
       <c r="AI32" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AJ32" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -4378,85 +4378,85 @@
         <v>2.67</v>
       </c>
       <c r="J33" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="L33" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="M33" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="N33" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="O33" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="P33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="R33" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="S33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="T33" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U33" t="n">
         <v>32</v>
       </c>
       <c r="V33" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="W33" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="X33" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y33" t="n">
         <v>5.7</v>
       </c>
       <c r="Z33" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE33" t="n">
         <v>32</v>
       </c>
       <c r="AF33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG33" t="n">
         <v>35</v>
       </c>
       <c r="AH33" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AI33" t="n">
         <v>1.09</v>
       </c>
       <c r="AJ33" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -653,7 +653,7 @@
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
         <v>1.42</v>
@@ -662,7 +662,7 @@
         <v>2.47</v>
       </c>
       <c r="L2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.53</v>
@@ -680,10 +680,10 @@
         <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="S2" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="T2" t="n">
         <v>8.75</v>
@@ -692,28 +692,28 @@
         <v>15</v>
       </c>
       <c r="V2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="W2" t="n">
         <v>37</v>
       </c>
       <c r="X2" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>6.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD2" t="n">
         <v>14.5</v>
@@ -722,10 +722,10 @@
         <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AH2" t="n">
         <v>101</v>
@@ -774,7 +774,7 @@
         <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="K3" t="n">
         <v>3.2</v>
@@ -849,7 +849,7 @@
         <v>301</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AJ3" t="n">
         <v>9</v>
@@ -893,10 +893,10 @@
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="K4" t="n">
         <v>3.2</v>
@@ -920,13 +920,13 @@
         <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
       </c>
       <c r="T4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U4" t="n">
         <v>21</v>
@@ -938,7 +938,7 @@
         <v>29</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>6.5</v>
@@ -956,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>34</v>
@@ -971,7 +971,7 @@
         <v>301</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
@@ -1021,13 +1021,13 @@
         <v>1.53</v>
       </c>
       <c r="K5" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="N5" t="n">
         <v>1.62</v>
@@ -1093,10 +1093,10 @@
         <v>501</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1140,7 +1140,7 @@
         <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -1215,7 +1215,7 @@
         <v>201</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
@@ -1256,22 +1256,22 @@
         <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="K7" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="N7" t="n">
         <v>1.53</v>
@@ -1304,25 +1304,25 @@
         <v>34</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>67</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>34</v>
@@ -1334,13 +1334,13 @@
         <v>41</v>
       </c>
       <c r="AH7" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8">
@@ -1384,10 +1384,10 @@
         <v>5.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="K8" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L8" t="n">
         <v>2.38</v>
@@ -1459,7 +1459,7 @@
         <v>451</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AJ8" t="n">
         <v>8</v>
@@ -1741,19 +1741,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>1.85</v>
@@ -1768,22 +1768,22 @@
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="R11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="V11" t="n">
         <v>34</v>
@@ -1795,7 +1795,7 @@
         <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z11" t="n">
         <v>15</v>
@@ -1813,16 +1813,16 @@
         <v>8.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
         <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AI11" t="n">
         <v>1.05</v>
@@ -1878,10 +1878,10 @@
         <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="N12" t="n">
         <v>1.36</v>
@@ -2244,10 +2244,10 @@
         <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="M15" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="N15" t="n">
         <v>1.44</v>
@@ -2354,7 +2354,7 @@
         <v>4.33</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>1.67</v>
@@ -2372,7 +2372,7 @@
         <v>2.1</v>
       </c>
       <c r="N16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O16" t="n">
         <v>3.25</v>
@@ -2402,7 +2402,7 @@
         <v>34</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
         <v>8</v>
@@ -2414,10 +2414,10 @@
         <v>41</v>
       </c>
       <c r="AB16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC16" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>8.5</v>
@@ -2429,16 +2429,16 @@
         <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2494,10 +2494,10 @@
         <v>1.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O17" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="P17" t="n">
         <v>1.91</v>
@@ -2598,37 +2598,37 @@
         <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
         <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="M18" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="N18" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O18" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="S18" t="n">
         <v>8</v>
@@ -2652,10 +2652,10 @@
         <v>7</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB18" t="n">
         <v>11</v>
@@ -2679,10 +2679,10 @@
         <v>401</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2717,80 +2717,80 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H19" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="M19" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.11</v>
+        <v>2.04</v>
       </c>
       <c r="R19" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="S19" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="T19" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U19" t="n">
         <v>8.75</v>
       </c>
       <c r="V19" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="Z19" t="n">
         <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="n">
         <v>40</v>
       </c>
       <c r="AG19" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH19" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
@@ -2827,41 +2827,41 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H20" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
         <v>9</v>
       </c>
       <c r="S20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="T20" t="n">
         <v>9.5</v>
       </c>
       <c r="U20" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="V20" t="n">
         <v>9</v>
@@ -2876,28 +2876,28 @@
         <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA20" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB20" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AC20" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD20" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AE20" t="n">
         <v>600</v>
       </c>
       <c r="AF20" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AG20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AH20" t="n">
         <v>600</v>
@@ -2937,45 +2937,45 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L21" t="n">
         <v>1.52</v>
       </c>
-      <c r="J21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.53</v>
-      </c>
       <c r="M21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="R21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="S21" t="n">
         <v>29</v>
       </c>
       <c r="T21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V21" t="n">
         <v>37</v>
@@ -2984,28 +2984,28 @@
         <v>32</v>
       </c>
       <c r="X21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="n">
         <v>7.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF21" t="n">
         <v>9.25</v>
@@ -3680,10 +3680,10 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R27" t="n">
         <v>9.25</v>
@@ -3771,84 +3771,84 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>4.05</v>
       </c>
       <c r="I28" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="K28" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="M28" t="n">
-        <v>2.46</v>
+        <v>2.15</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R28" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="S28" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="T28" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="U28" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="V28" t="n">
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
       <c r="W28" t="n">
         <v>17</v>
       </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y28" t="n">
         <v>7.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG28" t="n">
         <v>35</v>
       </c>
-      <c r="AD28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>101</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>40</v>
-      </c>
       <c r="AH28" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
@@ -3885,85 +3885,85 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="H29" t="n">
-        <v>5.8</v>
+        <v>4.05</v>
       </c>
       <c r="I29" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="M29" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="N29" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="O29" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="P29" t="n">
-        <v>2.9</v>
+        <v>2.39</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="R29" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="S29" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="T29" t="n">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="U29" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="V29" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="W29" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="X29" t="n">
         <v>9</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC29" t="n">
         <v>90</v>
       </c>
       <c r="AD29" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AE29" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AF29" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AG29" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AH29" t="n">
         <v>101</v>
@@ -4134,16 +4134,16 @@
         <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="N31" t="n">
         <v>1.36</v>
@@ -4369,19 +4369,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="H33" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>2.67</v>
       </c>
       <c r="J33" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="K33" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="L33" t="n">
         <v>2.15</v>
@@ -4402,10 +4402,10 @@
         <v>1.87</v>
       </c>
       <c r="R33" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="S33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -4423,7 +4423,7 @@
         <v>6.2</v>
       </c>
       <c r="Y33" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z33" t="n">
         <v>14.5</v>
@@ -4432,7 +4432,7 @@
         <v>75</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC33" t="n">
         <v>13</v>
@@ -4444,13 +4444,13 @@
         <v>32</v>
       </c>
       <c r="AF33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG33" t="n">
         <v>35</v>
       </c>
       <c r="AH33" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AI33" t="n">
         <v>1.09</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J2" t="n">
         <v>1.42</v>
@@ -680,52 +680,52 @@
         <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="S2" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="T2" t="n">
         <v>8.75</v>
       </c>
       <c r="U2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="W2" t="n">
         <v>37</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y2" t="n">
         <v>6.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AH2" t="n">
         <v>101</v>
@@ -774,16 +774,16 @@
         <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="N3" t="n">
         <v>1.44</v>
@@ -849,10 +849,10 @@
         <v>301</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1030,19 +1030,19 @@
         <v>1.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S5" t="n">
         <v>21</v>
@@ -1060,7 +1060,7 @@
         <v>51</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
         <v>7</v>
@@ -1069,7 +1069,7 @@
         <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="n">
         <v>5</v>
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
         <v>1.44</v>
@@ -1307,7 +1307,7 @@
         <v>7.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z7" t="n">
         <v>17</v>
@@ -1340,7 +1340,7 @@
         <v>1.08</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
@@ -1384,10 +1384,10 @@
         <v>5.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L8" t="n">
         <v>2.38</v>
@@ -1396,10 +1396,10 @@
         <v>1.57</v>
       </c>
       <c r="N8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P8" t="n">
         <v>2.25</v>
@@ -1408,7 +1408,7 @@
         <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="S8" t="n">
         <v>6.5</v>
@@ -1429,10 +1429,10 @@
         <v>7.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>81</v>
@@ -1444,10 +1444,10 @@
         <v>26</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1619,13 +1619,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>1.36</v>
@@ -1664,19 +1664,19 @@
         <v>21</v>
       </c>
       <c r="V10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W10" t="n">
         <v>29</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
         <v>6.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>51</v>
@@ -1863,13 +1863,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
         <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J12" t="n">
         <v>1.25</v>
@@ -1905,10 +1905,10 @@
         <v>8.5</v>
       </c>
       <c r="U12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W12" t="n">
         <v>23</v>
@@ -1917,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z12" t="n">
         <v>15</v>
@@ -1926,16 +1926,16 @@
         <v>51</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
@@ -1944,7 +1944,7 @@
         <v>41</v>
       </c>
       <c r="AH12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AI12" t="n">
         <v>1.04</v>
@@ -1991,7 +1991,7 @@
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J13" t="n">
         <v>1.5</v>
@@ -2012,10 +2012,10 @@
         <v>2.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
         <v>7</v>
@@ -2244,10 +2244,10 @@
         <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N15" t="n">
         <v>1.44</v>
@@ -2372,7 +2372,7 @@
         <v>2.1</v>
       </c>
       <c r="N16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="O16" t="n">
         <v>3.25</v>
@@ -2435,10 +2435,10 @@
         <v>201</v>
       </c>
       <c r="AI16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
@@ -2494,10 +2494,10 @@
         <v>1.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O17" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="P17" t="n">
         <v>1.91</v>
@@ -2509,7 +2509,7 @@
         <v>10</v>
       </c>
       <c r="S17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T17" t="n">
         <v>13</v>
@@ -2545,7 +2545,7 @@
         <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
@@ -2610,16 +2610,16 @@
         <v>3.25</v>
       </c>
       <c r="L18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="M18" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="N18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O18" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="P18" t="n">
         <v>1.91</v>
@@ -2679,10 +2679,10 @@
         <v>401</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2827,77 +2827,77 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="H20" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="I20" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="R20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="S20" t="n">
         <v>6</v>
       </c>
       <c r="T20" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="U20" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X20" t="n">
         <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="AB20" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AC20" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AD20" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="n">
         <v>600</v>
       </c>
       <c r="AF20" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG20" t="n">
         <v>250</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>120</v>
       </c>
       <c r="AH20" t="n">
         <v>600</v>
@@ -2937,13 +2937,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J21" t="n">
         <v>1.16</v>
@@ -2952,10 +2952,10 @@
         <v>4.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M21" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -2966,16 +2966,16 @@
         <v>2.11</v>
       </c>
       <c r="R21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="S21" t="n">
         <v>29</v>
       </c>
       <c r="T21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U21" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="V21" t="n">
         <v>37</v>
@@ -2984,31 +2984,31 @@
         <v>32</v>
       </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA21" t="n">
         <v>40</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC21" t="n">
         <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF21" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>9.25</v>
       </c>
       <c r="AG21" t="n">
         <v>16</v>
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H22" t="n">
         <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
         <v>1.25</v>
@@ -3135,10 +3135,10 @@
         <v>251</v>
       </c>
       <c r="AI22" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -3173,13 +3173,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>1.25</v>
@@ -3188,16 +3188,16 @@
         <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="M23" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="N23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
         <v>1.73</v>
@@ -3212,7 +3212,7 @@
         <v>19</v>
       </c>
       <c r="T23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U23" t="n">
         <v>41</v>
@@ -3230,7 +3230,7 @@
         <v>6.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA23" t="n">
         <v>41</v>
@@ -3239,16 +3239,16 @@
         <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
         <v>9</v>
       </c>
       <c r="AE23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF23" t="n">
         <v>17</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>15</v>
       </c>
       <c r="AG23" t="n">
         <v>26</v>
@@ -3432,10 +3432,10 @@
         <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="M25" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="N25" t="n">
         <v>1.36</v>
@@ -3894,16 +3894,16 @@
         <v>12.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="N29" t="n">
         <v>1.39</v>
@@ -3912,58 +3912,58 @@
         <v>2.42</v>
       </c>
       <c r="P29" t="n">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R29" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="S29" t="n">
         <v>4.9</v>
       </c>
-      <c r="S29" t="n">
-        <v>4.75</v>
-      </c>
       <c r="T29" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U29" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="V29" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X29" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y29" t="n">
         <v>7.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB29" t="n">
         <v>22</v>
       </c>
       <c r="AC29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE29" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AF29" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG29" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AH29" t="n">
         <v>101</v>
@@ -4253,7 +4253,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
         <v>1.3</v>
@@ -4283,10 +4283,10 @@
         <v>6</v>
       </c>
       <c r="S32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U32" t="n">
         <v>9.5</v>
@@ -4301,22 +4301,22 @@
         <v>9.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z32" t="n">
         <v>21</v>
       </c>
       <c r="AA32" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE32" t="n">
         <v>81</v>
@@ -4331,10 +4331,10 @@
         <v>900</v>
       </c>
       <c r="AI32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="33">

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
         <v>1.42</v>
@@ -674,58 +674,58 @@
         <v>2.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="S2" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="T2" t="n">
         <v>8.75</v>
       </c>
       <c r="U2" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="V2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="W2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X2" t="n">
         <v>7.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
         <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AH2" t="n">
         <v>101</v>
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
         <v>1.36</v>
@@ -923,16 +923,16 @@
         <v>7.5</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T4" t="n">
         <v>9.5</v>
       </c>
       <c r="U4" t="n">
+        <v>23</v>
+      </c>
+      <c r="V4" t="n">
         <v>21</v>
-      </c>
-      <c r="V4" t="n">
-        <v>19</v>
       </c>
       <c r="W4" t="n">
         <v>29</v>
@@ -950,19 +950,19 @@
         <v>51</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>34</v>
@@ -1012,79 +1012,79 @@
         <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
         <v>1.85</v>
       </c>
       <c r="J5" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P5" t="n">
         <v>2.63</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.25</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="R5" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="S5" t="n">
         <v>21</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U5" t="n">
         <v>51</v>
       </c>
       <c r="V5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="W5" t="n">
         <v>51</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
         <v>7</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AB5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>41</v>
@@ -1093,10 +1093,10 @@
         <v>501</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
         <v>1.29</v>
@@ -1158,10 +1158,10 @@
         <v>2.75</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
         <v>9</v>
@@ -1170,13 +1170,13 @@
         <v>13</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W6" t="n">
         <v>29</v>
@@ -1194,7 +1194,7 @@
         <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
@@ -1203,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
         <v>21</v>
@@ -1253,94 +1253,94 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="M7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N7" t="n">
         <v>1.57</v>
       </c>
-      <c r="N7" t="n">
-        <v>1.53</v>
-      </c>
       <c r="O7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
         <v>6.5</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="V7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="W7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>67</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
         <v>41</v>
       </c>
       <c r="AH7" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1375,40 +1375,40 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
         <v>5.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="K8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O8" t="n">
         <v>2.63</v>
       </c>
-      <c r="L8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2.38</v>
-      </c>
       <c r="P8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="S8" t="n">
         <v>6.5</v>
@@ -1420,37 +1420,37 @@
         <v>12</v>
       </c>
       <c r="V8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
         <v>7.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>81</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
         <v>26</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
         <v>51</v>
@@ -1459,10 +1459,10 @@
         <v>451</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1497,40 +1497,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
         <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L9" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="M9" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="N9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="S9" t="n">
         <v>11</v>
@@ -1548,7 +1548,7 @@
         <v>34</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
         <v>6.5</v>
@@ -1557,10 +1557,10 @@
         <v>17</v>
       </c>
       <c r="AA9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC9" t="n">
         <v>13</v>
@@ -1569,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
         <v>26</v>
@@ -1578,7 +1578,7 @@
         <v>41</v>
       </c>
       <c r="AH9" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AI9" t="n">
         <v>1.08</v>
@@ -1619,40 +1619,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K10" t="n">
         <v>3</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="N10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="S10" t="n">
         <v>11</v>
@@ -1667,16 +1667,16 @@
         <v>21</v>
       </c>
       <c r="W10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
         <v>6.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>51</v>
@@ -1697,16 +1697,16 @@
         <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1741,25 +1741,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="J11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="N11" t="n">
         <v>1.36</v>
@@ -1768,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
         <v>13</v>
@@ -1786,28 +1786,28 @@
         <v>51</v>
       </c>
       <c r="V11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="W11" t="n">
         <v>41</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
         <v>7.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
         <v>51</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>8.5</v>
@@ -1819,7 +1819,7 @@
         <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH11" t="n">
         <v>251</v>
@@ -1863,40 +1863,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
         <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="M12" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="N12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="S12" t="n">
         <v>8.5</v>
@@ -1914,7 +1914,7 @@
         <v>23</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>7.5</v>
@@ -1941,7 +1941,7 @@
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH12" t="n">
         <v>201</v>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
         <v>1.5</v>
@@ -2018,16 +2018,16 @@
         <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="S13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T13" t="n">
         <v>11</v>
       </c>
       <c r="U13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V13" t="n">
         <v>26</v>
@@ -2048,19 +2048,19 @@
         <v>67</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
         <v>41</v>
@@ -2238,16 +2238,16 @@
         <v>2.75</v>
       </c>
       <c r="J15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M15" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="N15" t="n">
         <v>1.44</v>
@@ -2366,10 +2366,10 @@
         <v>4.33</v>
       </c>
       <c r="L16" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="M16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N16" t="n">
         <v>1.33</v>
@@ -2482,10 +2482,10 @@
         <v>2.05</v>
       </c>
       <c r="J17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
         <v>2.05</v>
@@ -2500,10 +2500,10 @@
         <v>2.63</v>
       </c>
       <c r="P17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
         <v>10</v>
@@ -2524,7 +2524,7 @@
         <v>41</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y17" t="n">
         <v>6.5</v>
@@ -2536,7 +2536,7 @@
         <v>51</v>
       </c>
       <c r="AB17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC17" t="n">
         <v>9.5</v>
@@ -2554,13 +2554,13 @@
         <v>29</v>
       </c>
       <c r="AH17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="18">
@@ -2604,10 +2604,10 @@
         <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="K18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
         <v>2.1</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H20" t="n">
         <v>7.7</v>
       </c>
       <c r="I20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2846,10 +2846,10 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R20" t="n">
         <v>9.5</v>
@@ -2867,28 +2867,28 @@
         <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
         <v>18.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA20" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AB20" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AC20" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AD20" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AE20" t="n">
         <v>600</v>
@@ -2946,7 +2946,7 @@
         <v>1.52</v>
       </c>
       <c r="J21" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="K21" t="n">
         <v>4.5</v>
@@ -2960,10 +2960,10 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
         <v>15</v>
@@ -3173,13 +3173,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J23" t="n">
         <v>1.25</v>
@@ -3188,16 +3188,16 @@
         <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="M23" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="N23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P23" t="n">
         <v>1.73</v>
@@ -3209,16 +3209,16 @@
         <v>11</v>
       </c>
       <c r="S23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T23" t="n">
         <v>12</v>
       </c>
       <c r="U23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W23" t="n">
         <v>34</v>
@@ -3239,7 +3239,7 @@
         <v>8</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>9</v>
@@ -3310,10 +3310,10 @@
         <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="M24" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="N24" t="n">
         <v>1.33</v>
@@ -3432,10 +3432,10 @@
         <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="M25" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="N25" t="n">
         <v>1.36</v>
@@ -3675,15 +3675,15 @@
         <v>1.27</v>
       </c>
       <c r="M27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R27" t="n">
         <v>9.25</v>
@@ -3771,84 +3771,84 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
-        <v>4.05</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K28" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="M28" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R28" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="S28" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="T28" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="U28" t="n">
-        <v>9.25</v>
+        <v>14</v>
       </c>
       <c r="V28" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="W28" t="n">
         <v>17</v>
       </c>
       <c r="X28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA28" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AB28" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>9.75</v>
       </c>
       <c r="AE28" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AF28" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="AG28" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AH28" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
@@ -3885,25 +3885,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="H29" t="n">
-        <v>4.05</v>
+        <v>5.3</v>
       </c>
       <c r="I29" t="n">
-        <v>12.5</v>
+        <v>9.75</v>
       </c>
       <c r="J29" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="K29" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="M29" t="n">
-        <v>1.87</v>
+        <v>2.18</v>
       </c>
       <c r="N29" t="n">
         <v>1.39</v>
@@ -3912,37 +3912,37 @@
         <v>2.42</v>
       </c>
       <c r="P29" t="n">
-        <v>2.3</v>
+        <v>2.13</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R29" t="n">
-        <v>5.1</v>
+        <v>6.7</v>
       </c>
       <c r="S29" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="U29" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="V29" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X29" t="n">
-        <v>9.25</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="n">
         <v>90</v>
@@ -3951,22 +3951,22 @@
         <v>22</v>
       </c>
       <c r="AC29" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AD29" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AF29" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AG29" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="n">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
@@ -4003,37 +4003,37 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L30" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M30" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="N30" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O30" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P30" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
         <v>7</v>
@@ -4048,25 +4048,25 @@
         <v>21</v>
       </c>
       <c r="V30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="n">
         <v>51</v>
       </c>
       <c r="AB30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC30" t="n">
         <v>15</v>
@@ -4084,13 +4084,13 @@
         <v>41</v>
       </c>
       <c r="AH30" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AI30" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
@@ -4146,10 +4146,10 @@
         <v>1.93</v>
       </c>
       <c r="N31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P31" t="n">
         <v>1.83</v>
@@ -4179,7 +4179,7 @@
         <v>11</v>
       </c>
       <c r="Y31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z31" t="n">
         <v>17</v>
@@ -4191,7 +4191,7 @@
         <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD31" t="n">
         <v>15</v>
@@ -4206,7 +4206,7 @@
         <v>41</v>
       </c>
       <c r="AH31" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AI31" t="n">
         <v>1.05</v>
@@ -4247,25 +4247,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H32" t="n">
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="M32" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="N32" t="n">
         <v>1.4</v>
@@ -4274,10 +4274,10 @@
         <v>2.75</v>
       </c>
       <c r="P32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R32" t="n">
         <v>6</v>
@@ -4295,7 +4295,7 @@
         <v>13</v>
       </c>
       <c r="W32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X32" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J2" t="n">
         <v>1.42</v>
@@ -665,19 +665,19 @@
         <v>2.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
         <v>5.3</v>
@@ -698,31 +698,31 @@
         <v>40</v>
       </c>
       <c r="X2" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="n">
         <v>70</v>
@@ -765,37 +765,37 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="N3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
         <v>7.5</v>
@@ -804,7 +804,7 @@
         <v>12</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U3" t="n">
         <v>26</v>
@@ -816,25 +816,25 @@
         <v>34</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>6</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>51</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -846,7 +846,7 @@
         <v>34</v>
       </c>
       <c r="AH3" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AI3" t="n">
         <v>1.08</v>
@@ -893,7 +893,7 @@
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
         <v>1.36</v>
@@ -935,7 +935,7 @@
         <v>21</v>
       </c>
       <c r="W4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X4" t="n">
         <v>9</v>
@@ -1009,52 +1009,52 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
         <v>1.85</v>
       </c>
       <c r="J5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O5" t="n">
         <v>2.2</v>
       </c>
-      <c r="L5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.1</v>
-      </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="S5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="T5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U5" t="n">
         <v>51</v>
       </c>
       <c r="V5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="W5" t="n">
         <v>51</v>
@@ -1069,7 +1069,7 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AB5" t="n">
         <v>4.75</v>
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J6" t="n">
         <v>1.29</v>
@@ -1146,28 +1146,28 @@
         <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="M6" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="N6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
         <v>9</v>
       </c>
       <c r="S6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T6" t="n">
         <v>9.5</v>
@@ -1179,7 +1179,7 @@
         <v>19</v>
       </c>
       <c r="W6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1194,13 +1194,13 @@
         <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>29</v>
@@ -1253,73 +1253,73 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.2</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="N7" t="n">
         <v>1.5</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>2.5</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2.25</v>
-      </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="S7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U7" t="n">
         <v>26</v>
       </c>
       <c r="V7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="W7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1328,19 +1328,19 @@
         <v>29</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH7" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1375,31 +1375,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="N8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P8" t="n">
         <v>2.2</v>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="U8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V8" t="n">
         <v>15</v>
@@ -1426,13 +1426,13 @@
         <v>34</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
         <v>7.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>81</v>
@@ -1441,16 +1441,16 @@
         <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AF8" t="n">
         <v>51</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
       </c>
       <c r="AG8" t="n">
         <v>51</v>
@@ -1459,10 +1459,10 @@
         <v>451</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1581,10 +1581,10 @@
         <v>451</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1619,13 +1619,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>1.4</v>
@@ -1646,10 +1646,10 @@
         <v>2.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
         <v>7</v>
@@ -1658,10 +1658,10 @@
         <v>11</v>
       </c>
       <c r="T10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V10" t="n">
         <v>21</v>
@@ -1673,16 +1673,16 @@
         <v>8.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>51</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
         <v>15</v>
@@ -1744,22 +1744,22 @@
         <v>4.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="M11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>1.36</v>
@@ -1768,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>13</v>
@@ -1786,28 +1786,28 @@
         <v>51</v>
       </c>
       <c r="V11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="W11" t="n">
         <v>41</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
         <v>7.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
         <v>51</v>
       </c>
       <c r="AB11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
         <v>8.5</v>
@@ -1819,16 +1819,16 @@
         <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.5</v>
@@ -2060,7 +2060,7 @@
         <v>29</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
         <v>41</v>
@@ -2107,13 +2107,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="J14" t="n">
         <v>1.36</v>
@@ -2140,19 +2140,19 @@
         <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T14" t="n">
         <v>11</v>
       </c>
       <c r="U14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W14" t="n">
         <v>34</v>
@@ -2161,28 +2161,28 @@
         <v>8.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
         <v>51</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
         <v>34</v>
@@ -2232,10 +2232,10 @@
         <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
         <v>1.29</v>
@@ -2250,19 +2250,19 @@
         <v>1.9</v>
       </c>
       <c r="N15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S15" t="n">
         <v>12</v>
@@ -2274,13 +2274,13 @@
         <v>23</v>
       </c>
       <c r="V15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
         <v>6.5</v>
@@ -2289,10 +2289,10 @@
         <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC15" t="n">
         <v>13</v>
@@ -2304,13 +2304,13 @@
         <v>29</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AI15" t="n">
         <v>1.05</v>
@@ -2351,31 +2351,31 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="J16" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="K16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="M16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P16" t="n">
         <v>1.7</v>
@@ -2387,7 +2387,7 @@
         <v>15</v>
       </c>
       <c r="S16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -2402,10 +2402,10 @@
         <v>34</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
         <v>15</v>
@@ -2414,7 +2414,7 @@
         <v>41</v>
       </c>
       <c r="AB16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC16" t="n">
         <v>8.5</v>
@@ -2426,13 +2426,13 @@
         <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AI16" t="n">
         <v>1.03</v>
@@ -2476,7 +2476,7 @@
         <v>3.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
         <v>2.05</v>
@@ -2509,7 +2509,7 @@
         <v>10</v>
       </c>
       <c r="S17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T17" t="n">
         <v>13</v>
@@ -2536,7 +2536,7 @@
         <v>51</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC17" t="n">
         <v>9.5</v>
@@ -2604,16 +2604,16 @@
         <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="M18" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="N18" t="n">
         <v>1.44</v>
@@ -2725,21 +2725,25 @@
       <c r="I19" t="n">
         <v>5.7</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="L19" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M19" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="R19" t="n">
         <v>7.6</v>
@@ -2838,18 +2842,18 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R20" t="n">
         <v>9.5</v>
@@ -2937,10 +2941,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I21" t="n">
         <v>1.52</v>
@@ -2955,7 +2959,7 @@
         <v>1.53</v>
       </c>
       <c r="M21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -2969,43 +2973,43 @@
         <v>15</v>
       </c>
       <c r="S21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T21" t="n">
         <v>13.5</v>
       </c>
       <c r="U21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W21" t="n">
         <v>32</v>
       </c>
       <c r="X21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
         <v>40</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AC21" t="n">
         <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF21" t="n">
         <v>9.5</v>
@@ -3539,13 +3543,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J26" t="n">
         <v>1.25</v>
@@ -3554,10 +3558,10 @@
         <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="N26" t="n">
         <v>1.36</v>
@@ -3623,10 +3627,10 @@
         <v>151</v>
       </c>
       <c r="AI26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -3771,13 +3775,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="J28" t="n">
         <v>1.2</v>
@@ -3794,61 +3798,61 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="S28" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="T28" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="U28" t="n">
-        <v>14</v>
+        <v>11.75</v>
       </c>
       <c r="V28" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="W28" t="n">
         <v>17</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="Z28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD28" t="n">
         <v>10.75</v>
       </c>
-      <c r="AA28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AE28" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AF28" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AG28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH28" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
@@ -3885,19 +3889,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H29" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I29" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="K29" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="L29" t="n">
         <v>1.53</v>
@@ -3918,37 +3922,37 @@
         <v>1.67</v>
       </c>
       <c r="R29" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="S29" t="n">
         <v>5.5</v>
       </c>
       <c r="T29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U29" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="V29" t="n">
         <v>9</v>
       </c>
       <c r="W29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
         <v>90</v>
       </c>
       <c r="AB29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
         <v>60</v>
@@ -3963,7 +3967,7 @@
         <v>100</v>
       </c>
       <c r="AG29" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="n">
         <v>600</v>
@@ -4125,31 +4129,31 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="M31" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="N31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
         <v>1.83</v>
@@ -4161,13 +4165,13 @@
         <v>7</v>
       </c>
       <c r="S31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="T31" t="n">
         <v>8.5</v>
       </c>
       <c r="U31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V31" t="n">
         <v>13</v>
@@ -4194,7 +4198,7 @@
         <v>26</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>51</v>
@@ -4206,13 +4210,13 @@
         <v>41</v>
       </c>
       <c r="AH31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AI31" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -4256,16 +4260,16 @@
         <v>7.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="N32" t="n">
         <v>1.4</v>
@@ -4274,10 +4278,10 @@
         <v>2.75</v>
       </c>
       <c r="P32" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
         <v>6</v>
@@ -4286,7 +4290,7 @@
         <v>6.5</v>
       </c>
       <c r="T32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U32" t="n">
         <v>9.5</v>
@@ -4295,7 +4299,7 @@
         <v>13</v>
       </c>
       <c r="W32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X32" t="n">
         <v>9.5</v>
@@ -4328,7 +4332,7 @@
         <v>51</v>
       </c>
       <c r="AH32" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
         <v>1.06</v>
@@ -4369,73 +4373,73 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I33" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="J33" t="n">
         <v>1.39</v>
       </c>
       <c r="K33" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="L33" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="M33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="N33" t="n">
         <v>1.44</v>
       </c>
       <c r="O33" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="P33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R33" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="S33" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="T33" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="U33" t="n">
         <v>32</v>
       </c>
       <c r="V33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W33" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X33" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AC33" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD33" t="n">
         <v>9.75</v>
@@ -4444,7 +4448,7 @@
         <v>32</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG33" t="n">
         <v>35</v>
@@ -4456,7 +4460,7 @@
         <v>1.09</v>
       </c>
       <c r="AJ33" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -481,137 +481,137 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over05_FT</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_FT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over15_FT</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under15_FT</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over25_FT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under25_FT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over05_HT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_HT</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_Yes</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-0</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-1</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-0</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-0</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-3</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over05_FT</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under05_FT</t>
         </is>
       </c>
     </row>
@@ -650,88 +650,92 @@
         <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="K2" t="n">
-        <v>2.47</v>
+        <v>5.8</v>
       </c>
       <c r="L2" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.52</v>
+        <v>2.27</v>
       </c>
       <c r="N2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.5</v>
       </c>
-      <c r="O2" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>6.9</v>
-      </c>
       <c r="T2" t="n">
-        <v>8.75</v>
+        <v>4.9</v>
       </c>
       <c r="U2" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="V2" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="W2" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.4</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.7</v>
+        <v>45</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>6.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>150</v>
+        <v>6.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE2" t="n">
         <v>24</v>
       </c>
-      <c r="AD2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>80</v>
-      </c>
       <c r="AF2" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AG2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH2" t="n">
         <v>70</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>101</v>
       </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -774,85 +778,85 @@
         <v>2.63</v>
       </c>
       <c r="J3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" t="n">
         <v>1.44</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>2.75</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.3</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>1.62</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>1.5</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>2.5</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>1.91</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>1.8</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>7.5</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>12</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>11</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>26</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>23</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>34</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>8</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
         <v>6</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>17</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AC3" t="n">
         <v>51</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AD3" t="n">
         <v>7.5</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AE3" t="n">
         <v>12</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AF3" t="n">
         <v>11</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AG3" t="n">
         <v>26</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AH3" t="n">
         <v>23</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
         <v>34</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AJ3" t="n">
         <v>401</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -896,85 +900,85 @@
         <v>2.88</v>
       </c>
       <c r="J4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9</v>
+      </c>
+      <c r="L4" t="n">
         <v>1.36</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.2</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.1</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>1.73</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.44</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>2.63</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>1.83</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>7.5</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>11</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>9.5</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>23</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>21</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>34</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>9</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AA4" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>15</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AC4" t="n">
         <v>51</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AE4" t="n">
         <v>13</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
         <v>11</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
         <v>29</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AH4" t="n">
         <v>23</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>34</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>301</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1018,85 +1022,85 @@
         <v>1.85</v>
       </c>
       <c r="J5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.62</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>2.2</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>1.5</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>8</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>19</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>15</v>
-      </c>
-      <c r="U5" t="n">
-        <v>51</v>
-      </c>
-      <c r="V5" t="n">
-        <v>41</v>
       </c>
       <c r="W5" t="n">
         <v>51</v>
       </c>
       <c r="X5" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z5" t="n">
         <v>6</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AA5" t="n">
         <v>7</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>26</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
         <v>101</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
         <v>4.75</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AE5" t="n">
         <v>7</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AF5" t="n">
         <v>10</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AG5" t="n">
         <v>15</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AH5" t="n">
         <v>21</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>41</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
         <v>501</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1140,85 +1144,85 @@
         <v>2.88</v>
       </c>
       <c r="J6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
         <v>1.29</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>3.75</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.98</v>
-      </c>
       <c r="N6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.36</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>3</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>2.1</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>9</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>12</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>9.5</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>23</v>
       </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
         <v>19</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>26</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>11</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
         <v>13</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
         <v>41</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AD6" t="n">
         <v>10</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AE6" t="n">
         <v>15</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AF6" t="n">
         <v>11</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>29</v>
       </c>
       <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>201</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1253,94 +1257,94 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.36</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>3.2</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>2.1</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.73</v>
       </c>
-      <c r="N7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2.5</v>
-      </c>
       <c r="P7" t="n">
-        <v>1.91</v>
+        <v>1.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="R7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T7" t="n">
         <v>7.5</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>12</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>10</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>26</v>
       </c>
-      <c r="V7" t="n">
+      <c r="X7" t="n">
         <v>21</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>34</v>
       </c>
-      <c r="X7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC7" t="n">
         <v>51</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AD7" t="n">
         <v>8</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AE7" t="n">
         <v>13</v>
       </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG7" t="n">
         <v>29</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AH7" t="n">
         <v>23</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>34</v>
       </c>
-      <c r="AH7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1.07</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8">
@@ -1384,85 +1388,85 @@
         <v>5.5</v>
       </c>
       <c r="J8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>3</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>2.2</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>1.67</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>1.5</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>2.5</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>1.62</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>5.5</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>6.5</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>9</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>11</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>15</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>34</v>
       </c>
-      <c r="X8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA8" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
         <v>23</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
         <v>81</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AD8" t="n">
         <v>11</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AE8" t="n">
         <v>29</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AF8" t="n">
         <v>19</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AG8" t="n">
         <v>67</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AH8" t="n">
         <v>51</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>51</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>451</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1506,85 +1510,85 @@
         <v>2.9</v>
       </c>
       <c r="J9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
         <v>1.44</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2.75</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>2.38</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>1.57</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>1.53</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>2.38</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>2</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>1.73</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>6.5</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>11</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>10</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>23</v>
       </c>
-      <c r="V9" t="n">
+      <c r="X9" t="n">
         <v>21</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>34</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
         <v>17</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AC9" t="n">
         <v>67</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
         <v>7.5</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AE9" t="n">
         <v>13</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AF9" t="n">
         <v>11</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AG9" t="n">
         <v>34</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AH9" t="n">
         <v>26</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>41</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>451</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1628,85 +1632,85 @@
         <v>3</v>
       </c>
       <c r="J10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9</v>
+      </c>
+      <c r="L10" t="n">
         <v>1.4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>3</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>2.2</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>1.67</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>1.5</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>2.5</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>1.83</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>7</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>11</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>10</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>23</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>21</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>34</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AA10" t="n">
         <v>6</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
         <v>15</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AC10" t="n">
         <v>51</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AD10" t="n">
         <v>8</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AE10" t="n">
         <v>15</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AF10" t="n">
         <v>11</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AG10" t="n">
         <v>34</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AH10" t="n">
         <v>26</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
         <v>41</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>351</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1741,94 +1745,94 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K11" t="n">
+        <v>13</v>
+      </c>
+      <c r="L11" t="n">
         <v>1.25</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>4</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>1.8</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>1.36</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>1.73</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>2</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>13</v>
       </c>
-      <c r="S11" t="n">
-        <v>23</v>
-      </c>
-      <c r="T11" t="n">
-        <v>15</v>
-      </c>
       <c r="U11" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="V11" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="W11" t="n">
         <v>41</v>
       </c>
       <c r="X11" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z11" t="n">
         <v>12</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AA11" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
         <v>15</v>
       </c>
-      <c r="AA11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AC11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
         <v>13</v>
       </c>
-      <c r="AF11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>23</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>201</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -1863,94 +1867,94 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="O12" t="n">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U12" t="n">
         <v>8</v>
       </c>
-      <c r="S12" t="n">
+      <c r="V12" t="n">
         <v>8.5</v>
       </c>
-      <c r="T12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>13</v>
-      </c>
-      <c r="V12" t="n">
-        <v>13</v>
-      </c>
-      <c r="W12" t="n">
-        <v>23</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
       </c>
       <c r="Y12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AB12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF12" t="n">
         <v>15</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AG12" t="n">
         <v>51</v>
       </c>
-      <c r="AB12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>34</v>
-      </c>
       <c r="AH12" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.04</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13">
@@ -1985,94 +1989,94 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="L13" t="n">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="M13" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N13" t="n">
-        <v>1.57</v>
+        <v>2.88</v>
       </c>
       <c r="O13" t="n">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T13" t="n">
         <v>6.5</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
+        <v>12</v>
+      </c>
+      <c r="V13" t="n">
         <v>11</v>
       </c>
-      <c r="T13" t="n">
+      <c r="W13" t="n">
+        <v>29</v>
+      </c>
+      <c r="X13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
         <v>11</v>
       </c>
-      <c r="U13" t="n">
-        <v>26</v>
-      </c>
-      <c r="V13" t="n">
-        <v>26</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="AG13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI13" t="n">
         <v>41</v>
       </c>
-      <c r="X13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AJ13" t="n">
         <v>501</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2113,88 +2117,88 @@
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9</v>
+      </c>
+      <c r="L14" t="n">
         <v>1.36</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>3</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>2.15</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>1.67</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>1.5</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>2.5</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>1.95</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>1.8</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>8.5</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>15</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>11</v>
-      </c>
-      <c r="U14" t="n">
-        <v>34</v>
-      </c>
-      <c r="V14" t="n">
-        <v>26</v>
       </c>
       <c r="W14" t="n">
         <v>34</v>
       </c>
       <c r="X14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z14" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AA14" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC14" t="n">
         <v>51</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AD14" t="n">
         <v>7</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AE14" t="n">
         <v>11</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AF14" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AG14" t="n">
         <v>21</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
         <v>34</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AJ14" t="n">
         <v>351</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2238,85 +2242,85 @@
         <v>2.7</v>
       </c>
       <c r="J15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" t="n">
         <v>1.29</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>3.5</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>1.95</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>1.9</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>1.4</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>2.75</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R15" t="n">
         <v>1.75</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>2</v>
       </c>
-      <c r="R15" t="n">
+      <c r="T15" t="n">
         <v>8.5</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>12</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>9.5</v>
       </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
         <v>23</v>
       </c>
-      <c r="V15" t="n">
+      <c r="X15" t="n">
         <v>19</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Y15" t="n">
         <v>26</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>11</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AA15" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AB15" t="n">
         <v>15</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AC15" t="n">
         <v>41</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AD15" t="n">
         <v>9.5</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AE15" t="n">
         <v>13</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AF15" t="n">
         <v>10</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>29</v>
       </c>
       <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>201</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -2360,85 +2364,85 @@
         <v>1.6</v>
       </c>
       <c r="J16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" t="n">
         <v>1.18</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>4.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>1.62</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>2.25</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
         <v>1.3</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>3.4</v>
       </c>
-      <c r="P16" t="n">
+      <c r="R16" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
         <v>2.05</v>
-      </c>
-      <c r="R16" t="n">
-        <v>15</v>
-      </c>
-      <c r="S16" t="n">
-        <v>26</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
       </c>
       <c r="U16" t="n">
+        <v>26</v>
+      </c>
+      <c r="V16" t="n">
+        <v>15</v>
+      </c>
+      <c r="W16" t="n">
         <v>51</v>
       </c>
-      <c r="V16" t="n">
+      <c r="X16" t="n">
         <v>34</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Y16" t="n">
         <v>34</v>
-      </c>
-      <c r="X16" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
         <v>15</v>
       </c>
       <c r="AA16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" t="n">
         <v>41</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
         <v>8.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG16" t="n">
         <v>13</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AH16" t="n">
         <v>12</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AI16" t="n">
         <v>21</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AJ16" t="n">
         <v>151</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2476,91 +2480,91 @@
         <v>3.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
         <v>2.05</v>
       </c>
       <c r="J17" t="n">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
-        <v>2.05</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.44</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>2.63</v>
       </c>
-      <c r="P17" t="n">
+      <c r="R17" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
         <v>1.95</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>10</v>
       </c>
-      <c r="S17" t="n">
-        <v>19</v>
-      </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
+        <v>17</v>
+      </c>
+      <c r="V17" t="n">
         <v>13</v>
-      </c>
-      <c r="U17" t="n">
-        <v>41</v>
-      </c>
-      <c r="V17" t="n">
-        <v>29</v>
       </c>
       <c r="W17" t="n">
         <v>41</v>
       </c>
       <c r="X17" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z17" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AA17" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AB17" t="n">
         <v>15</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AC17" t="n">
         <v>51</v>
       </c>
-      <c r="AB17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AF17" t="n">
         <v>9</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AG17" t="n">
         <v>19</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AH17" t="n">
         <v>17</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AI17" t="n">
         <v>29</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AJ17" t="n">
         <v>251</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9.5</v>
       </c>
     </row>
     <row r="18">
@@ -2595,94 +2599,94 @@
         </is>
       </c>
       <c r="G18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O18" t="n">
         <v>1.75</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>1.44</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>2.63</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.8</v>
-      </c>
       <c r="R18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T18" t="n">
         <v>6.5</v>
       </c>
-      <c r="S18" t="n">
-        <v>8</v>
-      </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>8.5</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W18" t="n">
         <v>15</v>
       </c>
-      <c r="V18" t="n">
+      <c r="X18" t="n">
         <v>15</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
         <v>29</v>
       </c>
-      <c r="X18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA18" t="n">
         <v>7</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AB18" t="n">
         <v>17</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AC18" t="n">
         <v>51</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AD18" t="n">
         <v>11</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AE18" t="n">
         <v>21</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AF18" t="n">
         <v>15</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>41</v>
       </c>
       <c r="AG18" t="n">
         <v>41</v>
       </c>
       <c r="AH18" t="n">
-        <v>401</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.06</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19">
@@ -2717,87 +2721,87 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="I19" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.5</v>
-      </c>
+        <v>5.4</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>1.54</v>
+        <v>1.17</v>
       </c>
       <c r="M19" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q19" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R19" t="n">
-        <v>7.6</v>
-      </c>
       <c r="S19" t="n">
-        <v>6.9</v>
+        <v>2.04</v>
       </c>
       <c r="T19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U19" t="n">
         <v>7</v>
       </c>
-      <c r="U19" t="n">
-        <v>8.75</v>
-      </c>
       <c r="V19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W19" t="n">
-        <v>17</v>
+        <v>9.25</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.7</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>45</v>
+        <v>7.5</v>
       </c>
       <c r="AB19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD19" t="n">
         <v>16</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AE19" t="n">
         <v>30</v>
       </c>
-      <c r="AD19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG19" t="n">
         <v>80</v>
       </c>
-      <c r="AF19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AH19" t="n">
         <v>37</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AI19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>250</v>
       </c>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2834,80 +2838,80 @@
         <v>1.06</v>
       </c>
       <c r="H20" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>9.5</v>
+        <v>2.55</v>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
+        <v>1.46</v>
       </c>
       <c r="T20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V20" t="n">
         <v>11.25</v>
       </c>
-      <c r="U20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="V20" t="n">
-        <v>10</v>
-      </c>
       <c r="W20" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>10.25</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.5</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="n">
-        <v>37</v>
+        <v>17.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="AB20" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AC20" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="AD20" t="n">
         <v>90</v>
       </c>
       <c r="AE20" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG20" t="n">
         <v>600</v>
       </c>
-      <c r="AF20" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>250</v>
-      </c>
       <c r="AH20" t="n">
+        <v>450</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>600</v>
       </c>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2941,87 +2945,87 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H21" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
         <v>1.17</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>4.5</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>1.53</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>2.2</v>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.1</v>
-      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>15</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>27</v>
+        <v>2.08</v>
       </c>
       <c r="T21" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="U21" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="V21" t="n">
-        <v>35</v>
+        <v>14.5</v>
       </c>
       <c r="W21" t="n">
+        <v>90</v>
+      </c>
+      <c r="X21" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y21" t="n">
         <v>32</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AA21" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE21" t="n">
         <v>7.1</v>
       </c>
-      <c r="Z21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD21" t="n">
+      <c r="AF21" t="n">
         <v>6.9</v>
       </c>
-      <c r="AE21" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF21" t="n">
+      <c r="AG21" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AH21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI21" t="n">
         <v>16</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AJ21" t="n">
         <v>200</v>
       </c>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3064,85 +3068,85 @@
         <v>4.5</v>
       </c>
       <c r="J22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K22" t="n">
+        <v>13</v>
+      </c>
+      <c r="L22" t="n">
         <v>1.25</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>3.75</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
       <c r="N22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P22" t="n">
         <v>1.36</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>3</v>
       </c>
-      <c r="P22" t="n">
+      <c r="R22" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
         <v>1.91</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T22" t="n">
         <v>7.5</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>8</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V22" t="n">
         <v>8.5</v>
       </c>
-      <c r="U22" t="n">
+      <c r="W22" t="n">
         <v>13</v>
       </c>
-      <c r="V22" t="n">
+      <c r="X22" t="n">
         <v>13</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Y22" t="n">
         <v>26</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>11</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AA22" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AB22" t="n">
         <v>15</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AC22" t="n">
         <v>51</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AD22" t="n">
         <v>13</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AE22" t="n">
         <v>23</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AF22" t="n">
         <v>15</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AG22" t="n">
         <v>51</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AH22" t="n">
         <v>41</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AI22" t="n">
         <v>41</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AJ22" t="n">
         <v>251</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -3186,85 +3190,85 @@
         <v>2.05</v>
       </c>
       <c r="J23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>11</v>
+      </c>
+      <c r="L23" t="n">
         <v>1.25</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>3.75</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.95</v>
-      </c>
       <c r="N23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P23" t="n">
         <v>1.4</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>2.75</v>
       </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
         <v>1.73</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>2</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>11</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>17</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>12</v>
-      </c>
-      <c r="U23" t="n">
-        <v>34</v>
-      </c>
-      <c r="V23" t="n">
-        <v>26</v>
       </c>
       <c r="W23" t="n">
         <v>34</v>
       </c>
       <c r="X23" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z23" t="n">
         <v>11</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AA23" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AB23" t="n">
         <v>13</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AC23" t="n">
         <v>41</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AD23" t="n">
         <v>8</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AE23" t="n">
         <v>11</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AF23" t="n">
         <v>9</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AG23" t="n">
         <v>19</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AH23" t="n">
         <v>17</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AI23" t="n">
         <v>26</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AJ23" t="n">
         <v>201</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -3299,94 +3303,94 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K24" t="n">
+        <v>15</v>
+      </c>
+      <c r="L24" t="n">
         <v>1.22</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>4</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.08</v>
-      </c>
       <c r="N24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P24" t="n">
         <v>1.33</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>3.25</v>
       </c>
-      <c r="P24" t="n">
+      <c r="R24" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="n">
         <v>1.83</v>
       </c>
-      <c r="R24" t="n">
+      <c r="T24" t="n">
         <v>7.5</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>7.5</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>8.5</v>
       </c>
-      <c r="U24" t="n">
+      <c r="W24" t="n">
         <v>11</v>
       </c>
-      <c r="V24" t="n">
+      <c r="X24" t="n">
         <v>12</v>
       </c>
-      <c r="W24" t="n">
+      <c r="Y24" t="n">
         <v>23</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>13</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AA24" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AB24" t="n">
         <v>19</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AC24" t="n">
         <v>51</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AD24" t="n">
         <v>15</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AE24" t="n">
         <v>29</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AF24" t="n">
         <v>17</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AG24" t="n">
         <v>51</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AH24" t="n">
         <v>41</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AI24" t="n">
         <v>41</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AJ24" t="n">
         <v>251</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -3430,85 +3434,85 @@
         <v>4</v>
       </c>
       <c r="J25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11</v>
+      </c>
+      <c r="L25" t="n">
         <v>1.25</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>3.75</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>1.88</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>1.98</v>
       </c>
-      <c r="N25" t="n">
+      <c r="P25" t="n">
         <v>1.36</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>3</v>
       </c>
-      <c r="P25" t="n">
+      <c r="R25" t="n">
         <v>1.73</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>2</v>
       </c>
-      <c r="R25" t="n">
+      <c r="T25" t="n">
         <v>7.5</v>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>9</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>8.5</v>
       </c>
-      <c r="U25" t="n">
+      <c r="W25" t="n">
         <v>15</v>
       </c>
-      <c r="V25" t="n">
+      <c r="X25" t="n">
         <v>15</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Y25" t="n">
         <v>26</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>11</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AA25" t="n">
         <v>7</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AB25" t="n">
         <v>15</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AC25" t="n">
         <v>51</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AD25" t="n">
         <v>13</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AE25" t="n">
         <v>21</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AF25" t="n">
         <v>15</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>34</v>
       </c>
       <c r="AG25" t="n">
         <v>41</v>
       </c>
       <c r="AH25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>201</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -3552,85 +3556,85 @@
         <v>2.5</v>
       </c>
       <c r="J26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K26" t="n">
+        <v>13</v>
+      </c>
+      <c r="L26" t="n">
         <v>1.25</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>3.75</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>1.83</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>2.03</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>1.36</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>3</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="S26" t="n">
         <v>2.1</v>
       </c>
-      <c r="R26" t="n">
+      <c r="T26" t="n">
         <v>9.5</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>13</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V26" t="n">
         <v>10</v>
-      </c>
-      <c r="U26" t="n">
-        <v>26</v>
-      </c>
-      <c r="V26" t="n">
-        <v>21</v>
       </c>
       <c r="W26" t="n">
         <v>26</v>
       </c>
       <c r="X26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z26" t="n">
         <v>12</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AA26" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AB26" t="n">
         <v>13</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AC26" t="n">
         <v>41</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AD26" t="n">
         <v>9.5</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AE26" t="n">
         <v>13</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AF26" t="n">
         <v>10</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>21</v>
       </c>
       <c r="AG26" t="n">
         <v>26</v>
       </c>
       <c r="AH26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>151</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -3668,80 +3672,80 @@
         <v>1.08</v>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="I27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M27" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.58</v>
-      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>10</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X27" t="n">
         <v>9.25</v>
       </c>
-      <c r="S27" t="n">
-        <v>6</v>
-      </c>
-      <c r="T27" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="U27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V27" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W27" t="n">
-        <v>28</v>
-      </c>
-      <c r="X27" t="n">
-        <v>21</v>
-      </c>
       <c r="Y27" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA27" t="n">
         <v>16</v>
       </c>
-      <c r="Z27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>120</v>
-      </c>
       <c r="AB27" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AD27" t="n">
         <v>70</v>
       </c>
       <c r="AE27" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG27" t="n">
         <v>101</v>
       </c>
-      <c r="AF27" t="n">
-        <v>400</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>175</v>
-      </c>
       <c r="AH27" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
+        <v>350</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3775,87 +3779,87 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
         <v>1.2</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>4.2</v>
       </c>
-      <c r="L28" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
+      <c r="N28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="S28" t="n">
         <v>2.12</v>
       </c>
-      <c r="R28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U28" t="n">
         <v>7.9</v>
       </c>
-      <c r="T28" t="n">
+      <c r="V28" t="n">
         <v>7.1</v>
       </c>
-      <c r="U28" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X28" t="n">
         <v>10.5</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Y28" t="n">
         <v>17</v>
       </c>
-      <c r="X28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>6.7</v>
-      </c>
       <c r="Z28" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AA28" t="n">
-        <v>40</v>
+        <v>6.8</v>
       </c>
       <c r="AB28" t="n">
         <v>11.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>18.5</v>
+        <v>40</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AE28" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH28" t="n">
         <v>25</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AI28" t="n">
         <v>26</v>
       </c>
-      <c r="AH28" t="n">
-        <v>250</v>
-      </c>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="AJ28" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3889,91 +3893,91 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="H29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>10</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.9</v>
-      </c>
+        <v>11.75</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="N29" t="n">
         <v>1.53</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>2.18</v>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>1.39</v>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>2.42</v>
       </c>
-      <c r="P29" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S29" t="n">
         <v>1.67</v>
       </c>
-      <c r="R29" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5.5</v>
-      </c>
       <c r="T29" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U29" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="V29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="X29" t="n">
-        <v>15.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC29" t="n">
         <v>90</v>
       </c>
-      <c r="AB29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>60</v>
-      </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AE29" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AG29" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AH29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>600</v>
       </c>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4016,85 +4020,85 @@
         <v>3</v>
       </c>
       <c r="J30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K30" t="n">
+        <v>8</v>
+      </c>
+      <c r="L30" t="n">
         <v>1.4</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>2.75</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>2.3</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>1.6</v>
       </c>
-      <c r="N30" t="n">
+      <c r="P30" t="n">
         <v>1.5</v>
       </c>
-      <c r="O30" t="n">
+      <c r="Q30" t="n">
         <v>2.5</v>
       </c>
-      <c r="P30" t="n">
+      <c r="R30" t="n">
         <v>1.91</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
         <v>1.8</v>
       </c>
-      <c r="R30" t="n">
+      <c r="T30" t="n">
         <v>7</v>
       </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>10</v>
       </c>
-      <c r="T30" t="n">
+      <c r="V30" t="n">
         <v>9.5</v>
       </c>
-      <c r="U30" t="n">
+      <c r="W30" t="n">
         <v>21</v>
       </c>
-      <c r="V30" t="n">
+      <c r="X30" t="n">
         <v>21</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Y30" t="n">
         <v>34</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>8</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AA30" t="n">
         <v>6</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AB30" t="n">
         <v>17</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AC30" t="n">
         <v>51</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AD30" t="n">
         <v>8.5</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AE30" t="n">
         <v>15</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AF30" t="n">
         <v>12</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AG30" t="n">
         <v>34</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AH30" t="n">
         <v>29</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AI30" t="n">
         <v>41</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AJ30" t="n">
         <v>351</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -4129,94 +4133,94 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M31" t="n">
         <v>3.75</v>
       </c>
-      <c r="I31" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>1.83</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
         <v>2.03</v>
       </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>1.36</v>
       </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
         <v>3</v>
       </c>
-      <c r="P31" t="n">
+      <c r="R31" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="S31" t="n">
         <v>1.83</v>
       </c>
-      <c r="R31" t="n">
-        <v>7</v>
-      </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>7.5</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V31" t="n">
         <v>8.5</v>
       </c>
-      <c r="U31" t="n">
+      <c r="W31" t="n">
         <v>12</v>
       </c>
-      <c r="V31" t="n">
+      <c r="X31" t="n">
         <v>13</v>
       </c>
-      <c r="W31" t="n">
+      <c r="Y31" t="n">
         <v>26</v>
       </c>
-      <c r="X31" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y31" t="n">
+      <c r="Z31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA31" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AB31" t="n">
         <v>17</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AC31" t="n">
         <v>51</v>
       </c>
-      <c r="AB31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>26</v>
-      </c>
       <c r="AD31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF31" t="n">
         <v>17</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AG31" t="n">
         <v>51</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AH31" t="n">
         <v>41</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AI31" t="n">
         <v>41</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AJ31" t="n">
         <v>251</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -4260,85 +4264,85 @@
         <v>7.5</v>
       </c>
       <c r="J32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L32" t="n">
         <v>1.3</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>3.4</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>2</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>1.85</v>
       </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>1.4</v>
       </c>
-      <c r="O32" t="n">
+      <c r="Q32" t="n">
         <v>2.75</v>
       </c>
-      <c r="P32" t="n">
+      <c r="R32" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="S32" t="n">
         <v>1.62</v>
       </c>
-      <c r="R32" t="n">
+      <c r="T32" t="n">
         <v>6</v>
       </c>
-      <c r="S32" t="n">
+      <c r="U32" t="n">
         <v>6.5</v>
       </c>
-      <c r="T32" t="n">
+      <c r="V32" t="n">
         <v>9</v>
       </c>
-      <c r="U32" t="n">
+      <c r="W32" t="n">
         <v>9.5</v>
       </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
         <v>13</v>
       </c>
-      <c r="W32" t="n">
+      <c r="Y32" t="n">
         <v>34</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AA32" t="n">
         <v>8</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AB32" t="n">
         <v>21</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AC32" t="n">
         <v>67</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AD32" t="n">
         <v>17</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AE32" t="n">
         <v>41</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AF32" t="n">
         <v>23</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AG32" t="n">
         <v>81</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AH32" t="n">
         <v>51</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AI32" t="n">
         <v>51</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AJ32" t="n">
         <v>1000</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>9.5</v>
       </c>
     </row>
     <row r="33">
@@ -4382,85 +4386,85 @@
         <v>2.72</v>
       </c>
       <c r="J33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L33" t="n">
         <v>1.39</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>2.8</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>2.12</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>1.65</v>
       </c>
-      <c r="N33" t="n">
+      <c r="P33" t="n">
         <v>1.44</v>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>2.6</v>
       </c>
-      <c r="P33" t="n">
+      <c r="R33" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="S33" t="n">
         <v>1.91</v>
       </c>
-      <c r="R33" t="n">
+      <c r="T33" t="n">
         <v>7.8</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>13.5</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V33" t="n">
         <v>9.75</v>
       </c>
-      <c r="U33" t="n">
+      <c r="W33" t="n">
         <v>32</v>
       </c>
-      <c r="V33" t="n">
+      <c r="X33" t="n">
         <v>24</v>
       </c>
-      <c r="W33" t="n">
+      <c r="Y33" t="n">
         <v>35</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>6.1</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AA33" t="n">
         <v>5.6</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AB33" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AC33" t="n">
         <v>70</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AD33" t="n">
         <v>7.7</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AE33" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AF33" t="n">
         <v>9.75</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AG33" t="n">
         <v>32</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AH33" t="n">
         <v>24</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AI33" t="n">
         <v>35</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AJ33" t="n">
         <v>600</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>6.1</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
         <v>1.12</v>
@@ -674,28 +674,28 @@
         <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T2" t="n">
         <v>4.9</v>
       </c>
       <c r="U2" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
       </c>
       <c r="W2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X2" t="n">
         <v>18</v>
@@ -704,10 +704,10 @@
         <v>45</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
@@ -719,13 +719,13 @@
         <v>9.25</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF2" t="n">
         <v>17.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AH2" t="n">
         <v>70</v>
@@ -772,7 +772,7 @@
         <v>2.63</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
         <v>2.63</v>
@@ -894,7 +894,7 @@
         <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
         <v>2.88</v>
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
         <v>1.85</v>
@@ -1052,13 +1052,13 @@
         <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W5" t="n">
         <v>51</v>
@@ -1073,22 +1073,22 @@
         <v>6</v>
       </c>
       <c r="AA5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
         <v>101</v>
       </c>
       <c r="AD5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>7</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
@@ -1156,25 +1156,25 @@
         <v>3.75</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U6" t="n">
         <v>12</v>
@@ -1216,7 +1216,7 @@
         <v>29</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
         <v>1.07</v>
@@ -1305,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
@@ -1332,7 +1332,7 @@
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>29</v>
@@ -1385,7 +1385,7 @@
         <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
         <v>1.07</v>
@@ -1394,22 +1394,22 @@
         <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R8" t="n">
         <v>2.2</v>
@@ -1442,13 +1442,13 @@
         <v>7.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
         <v>81</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>29</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
         <v>1.07</v>
@@ -1662,7 +1662,7 @@
         <v>1.83</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U10" t="n">
         <v>11</v>
@@ -1683,7 +1683,7 @@
         <v>8.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
@@ -1695,19 +1695,19 @@
         <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
         <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>351</v>
@@ -1748,10 +1748,10 @@
         <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J11" t="n">
         <v>1.04</v>
@@ -1760,34 +1760,34 @@
         <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
         <v>13</v>
       </c>
       <c r="U11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V11" t="n">
         <v>13</v>
@@ -1802,7 +1802,7 @@
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>7.5</v>
@@ -1814,7 +1814,7 @@
         <v>41</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.05</v>
@@ -1882,31 +1882,31 @@
         <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N12" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.95</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>1.8</v>
       </c>
-      <c r="S12" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T12" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U12" t="n">
         <v>8</v>
@@ -1918,16 +1918,16 @@
         <v>13</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="n">
         <v>17</v>
@@ -1936,10 +1936,10 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
         <v>15</v>
@@ -1954,7 +1954,7 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13">
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J14" t="n">
         <v>1.07</v>
@@ -2138,10 +2138,10 @@
         <v>1.67</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R14" t="n">
         <v>1.95</v>
@@ -2150,19 +2150,19 @@
         <v>1.8</v>
       </c>
       <c r="T14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U14" t="n">
         <v>15</v>
       </c>
       <c r="V14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W14" t="n">
         <v>34</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
         <v>41</v>
@@ -2183,7 +2183,7 @@
         <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF14" t="n">
         <v>9.5</v>
@@ -2192,10 +2192,10 @@
         <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
         <v>351</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
         <v>1.05</v>
@@ -2278,16 +2278,16 @@
         <v>12</v>
       </c>
       <c r="V15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W15" t="n">
         <v>23</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="n">
         <v>11</v>
@@ -2296,13 +2296,13 @@
         <v>6.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
         <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -2311,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="AG15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -2388,10 +2388,10 @@
         <v>3.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -2480,7 +2480,7 @@
         <v>3.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
         <v>2.05</v>
@@ -2492,10 +2492,10 @@
         <v>9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>2.1</v>
@@ -2510,10 +2510,10 @@
         <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -2534,7 +2534,7 @@
         <v>41</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
@@ -2546,7 +2546,7 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>9.5</v>
@@ -2564,7 +2564,7 @@
         <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18">
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
         <v>1.06</v>
@@ -2614,16 +2614,16 @@
         <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2674,7 +2674,7 @@
         <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>41</v>
@@ -2686,7 +2686,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19">
@@ -2838,52 +2838,52 @@
         <v>1.06</v>
       </c>
       <c r="H20" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="I20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="O20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="S20" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="T20" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="U20" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="V20" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="W20" t="n">
         <v>5</v>
       </c>
       <c r="X20" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AB20" t="n">
         <v>45</v>
@@ -2895,7 +2895,7 @@
         <v>90</v>
       </c>
       <c r="AE20" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AF20" t="n">
         <v>110</v>
@@ -2904,7 +2904,7 @@
         <v>600</v>
       </c>
       <c r="AH20" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AI20" t="n">
         <v>350</v>
@@ -2965,7 +2965,7 @@
         <v>1.53</v>
       </c>
       <c r="O21" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -2991,13 +2991,13 @@
         <v>40</v>
       </c>
       <c r="Y21" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB21" t="n">
         <v>12</v>
@@ -3006,25 +3006,25 @@
         <v>40</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AF21" t="n">
         <v>6.9</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH21" t="n">
         <v>9.25</v>
       </c>
       <c r="AI21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22">
@@ -3202,10 +3202,10 @@
         <v>3.75</v>
       </c>
       <c r="N23" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3669,37 +3669,37 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="H27" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="O27" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="S27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U27" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="V27" t="n">
         <v>10</v>
@@ -3711,34 +3711,34 @@
         <v>9.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC27" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE27" t="n">
         <v>250</v>
       </c>
       <c r="AF27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG27" t="n">
         <v>101</v>
       </c>
       <c r="AH27" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AI27" t="n">
         <v>150</v>
@@ -3893,21 +3893,21 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I29" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="M29" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="N29" t="n">
         <v>1.53</v>
@@ -3922,61 +3922,61 @@
         <v>2.42</v>
       </c>
       <c r="R29" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="S29" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="T29" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="U29" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="V29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X29" t="n">
         <v>8.5</v>
       </c>
-      <c r="W29" t="n">
-        <v>6</v>
-      </c>
-      <c r="X29" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Y29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB29" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AD29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF29" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG29" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH29" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI29" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AJ29" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30">
@@ -4139,13 +4139,13 @@
         <v>3.8</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4154,10 +4154,10 @@
         <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>1.36</v>
@@ -4175,7 +4175,7 @@
         <v>7.5</v>
       </c>
       <c r="U31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V31" t="n">
         <v>8.5</v>
@@ -4193,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB31" t="n">
         <v>17</v>
@@ -4205,7 +4205,7 @@
         <v>15</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF31" t="n">
         <v>17</v>
@@ -4255,31 +4255,31 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
         <v>7.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K32" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="P32" t="n">
         <v>1.4</v>
@@ -4297,7 +4297,7 @@
         <v>6</v>
       </c>
       <c r="U32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V32" t="n">
         <v>9</v>
@@ -4312,7 +4312,7 @@
         <v>34</v>
       </c>
       <c r="Z32" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA32" t="n">
         <v>8</v>
@@ -4321,10 +4321,10 @@
         <v>21</v>
       </c>
       <c r="AC32" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE32" t="n">
         <v>41</v>
@@ -4339,10 +4339,10 @@
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33">
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I33" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="J33" t="n">
         <v>1.09</v>
@@ -4395,13 +4395,13 @@
         <v>1.39</v>
       </c>
       <c r="M33" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="N33" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P33" t="n">
         <v>1.44</v>
@@ -4410,25 +4410,25 @@
         <v>2.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S33" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T33" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="U33" t="n">
         <v>13.5</v>
       </c>
       <c r="V33" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W33" t="n">
         <v>32</v>
       </c>
       <c r="X33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y33" t="n">
         <v>35</v>
@@ -4437,16 +4437,16 @@
         <v>6.1</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB33" t="n">
         <v>13.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD33" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AE33" t="n">
         <v>13.5</v>
@@ -4455,13 +4455,13 @@
         <v>9.75</v>
       </c>
       <c r="AG33" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH33" t="n">
         <v>24</v>
       </c>
       <c r="AI33" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ33" t="n">
         <v>600</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -647,37 +647,37 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>4.25</v>
       </c>
       <c r="J2" t="n">
         <v>1.12</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M2" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="N2" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="R2" t="n">
         <v>2.22</v>
@@ -686,28 +686,28 @@
         <v>1.52</v>
       </c>
       <c r="T2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="V2" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA2" t="n">
         <v>6.3</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>6.5</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
@@ -716,19 +716,19 @@
         <v>175</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
         <v>90</v>
@@ -802,19 +802,19 @@
         <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U3" t="n">
         <v>12</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
         <v>26</v>
@@ -829,22 +829,22 @@
         <v>8</v>
       </c>
       <c r="AA3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
         <v>26</v>
@@ -918,10 +918,10 @@
         <v>1.73</v>
       </c>
       <c r="P4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R4" t="n">
         <v>1.83</v>
@@ -936,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="V4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
         <v>23</v>
@@ -1040,7 +1040,7 @@
         <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" t="n">
         <v>2.2</v>
@@ -1064,7 +1064,7 @@
         <v>51</v>
       </c>
       <c r="X5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y5" t="n">
         <v>51</v>
@@ -1162,7 +1162,7 @@
         <v>1.93</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q6" t="n">
         <v>2.75</v>
@@ -1284,10 +1284,10 @@
         <v>1.73</v>
       </c>
       <c r="P7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R7" t="n">
         <v>1.83</v>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>5.75</v>
@@ -1406,10 +1406,10 @@
         <v>1.73</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R8" t="n">
         <v>2.2</v>
@@ -1424,7 +1424,7 @@
         <v>6.5</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W8" t="n">
         <v>11</v>
@@ -1439,7 +1439,7 @@
         <v>8.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1528,10 +1528,10 @@
         <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R9" t="n">
         <v>2</v>
@@ -1629,13 +1629,13 @@
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
         <v>1.07</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1656,13 +1656,13 @@
         <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U10" t="n">
         <v>11</v>
@@ -1686,7 +1686,7 @@
         <v>6.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
         <v>51</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
         <v>1.04</v>
@@ -1784,16 +1784,16 @@
         <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U11" t="n">
         <v>23</v>
       </c>
       <c r="V11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X11" t="n">
         <v>34</v>
@@ -1814,7 +1814,7 @@
         <v>41</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -1823,7 +1823,7 @@
         <v>8.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>13</v>
@@ -1989,25 +1989,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N13" t="n">
         <v>2.88</v>
@@ -2016,25 +2016,25 @@
         <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U13" t="n">
         <v>12</v>
       </c>
       <c r="V13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W13" t="n">
         <v>29</v>
@@ -2046,7 +2046,7 @@
         <v>41</v>
       </c>
       <c r="Z13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA13" t="n">
         <v>6</v>
@@ -2058,13 +2058,13 @@
         <v>81</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
         <v>29</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J14" t="n">
         <v>1.07</v>
@@ -2150,7 +2150,7 @@
         <v>1.8</v>
       </c>
       <c r="T14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U14" t="n">
         <v>15</v>
@@ -2195,7 +2195,7 @@
         <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
         <v>351</v>
@@ -2254,10 +2254,10 @@
         <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O15" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2361,13 +2361,13 @@
         <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L16" t="n">
         <v>1.18</v>
@@ -2376,10 +2376,10 @@
         <v>4.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P16" t="n">
         <v>1.3</v>
@@ -2480,16 +2480,16 @@
         <v>3.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="J17" t="n">
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2516,7 +2516,7 @@
         <v>1.91</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U17" t="n">
         <v>17</v>
@@ -2534,10 +2534,10 @@
         <v>41</v>
       </c>
       <c r="Z17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB17" t="n">
         <v>15</v>
@@ -2558,7 +2558,7 @@
         <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
         <v>3.9</v>
@@ -2632,10 +2632,10 @@
         <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T18" t="n">
         <v>6.5</v>
@@ -2644,19 +2644,19 @@
         <v>8.5</v>
       </c>
       <c r="V18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
         <v>15</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA18" t="n">
         <v>7</v>
@@ -2665,13 +2665,13 @@
         <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>13</v>
@@ -2686,7 +2686,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19">
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="H19" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="I19" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2735,7 +2735,7 @@
         <v>1.17</v>
       </c>
       <c r="M19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="N19" t="n">
         <v>1.53</v>
@@ -2749,55 +2749,55 @@
         <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="T19" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="U19" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="V19" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="W19" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X19" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
         <v>16.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF19" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC19" t="n">
+      <c r="AG19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH19" t="n">
         <v>40</v>
       </c>
-      <c r="AD19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>37</v>
-      </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ19" t="n">
         <v>250</v>
@@ -2835,70 +2835,70 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="H20" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="I20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="O20" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="S20" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="T20" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="V20" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB20" t="n">
         <v>40</v>
       </c>
-      <c r="Z20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>45</v>
-      </c>
       <c r="AC20" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>400</v>
+      </c>
+      <c r="AF20" t="n">
         <v>90</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>450</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>110</v>
       </c>
       <c r="AG20" t="n">
         <v>600</v>
@@ -2907,7 +2907,7 @@
         <v>500</v>
       </c>
       <c r="AI20" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ20" t="n">
         <v>600</v>
@@ -2945,10 +2945,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I21" t="n">
         <v>1.47</v>
@@ -2976,16 +2976,16 @@
         <v>2.08</v>
       </c>
       <c r="T21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U21" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V21" t="n">
         <v>14.5</v>
       </c>
       <c r="W21" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="X21" t="n">
         <v>40</v>
@@ -3000,22 +3000,22 @@
         <v>7.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
         <v>6.9</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH21" t="n">
         <v>9.25</v>
@@ -3181,43 +3181,43 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O23" t="n">
         <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
         <v>11</v>
@@ -3226,22 +3226,22 @@
         <v>17</v>
       </c>
       <c r="V23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W23" t="n">
         <v>34</v>
       </c>
       <c r="X23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB23" t="n">
         <v>13</v>
@@ -3250,7 +3250,7 @@
         <v>41</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
@@ -3259,16 +3259,16 @@
         <v>9</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
         <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -3303,13 +3303,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J24" t="n">
         <v>1.03</v>
@@ -3318,31 +3318,31 @@
         <v>15</v>
       </c>
       <c r="L24" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N24" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S24" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U24" t="n">
         <v>7.5</v>
@@ -3360,19 +3360,19 @@
         <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -3550,7 +3550,7 @@
         <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
         <v>2.5</v>
@@ -3562,31 +3562,31 @@
         <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="O26" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="P26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q26" t="n">
         <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U26" t="n">
         <v>13</v>
@@ -3598,16 +3598,16 @@
         <v>26</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
       </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB26" t="n">
         <v>13</v>
@@ -3616,7 +3616,7 @@
         <v>41</v>
       </c>
       <c r="AD26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
@@ -3628,7 +3628,7 @@
         <v>26</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
         <v>26</v>
@@ -3669,79 +3669,79 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="O27" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="S27" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="T27" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="U27" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="V27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X27" t="n">
         <v>10</v>
       </c>
-      <c r="W27" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X27" t="n">
-        <v>9.25</v>
-      </c>
       <c r="Y27" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA27" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AC27" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AD27" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AE27" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AF27" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AG27" t="n">
         <v>101</v>
       </c>
       <c r="AH27" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AI27" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AJ27" t="n">
         <v>600</v>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>3.1</v>
@@ -4023,40 +4023,40 @@
         <v>1.08</v>
       </c>
       <c r="K30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O30" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P30" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R30" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U30" t="n">
         <v>10</v>
       </c>
       <c r="V30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W30" t="n">
         <v>21</v>
@@ -4068,7 +4068,7 @@
         <v>34</v>
       </c>
       <c r="Z30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA30" t="n">
         <v>6</v>
@@ -4077,10 +4077,10 @@
         <v>17</v>
       </c>
       <c r="AC30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -4139,13 +4139,13 @@
         <v>3.8</v>
       </c>
       <c r="I31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -4154,10 +4154,10 @@
         <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P31" t="n">
         <v>1.36</v>
@@ -4175,7 +4175,7 @@
         <v>7.5</v>
       </c>
       <c r="U31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V31" t="n">
         <v>8.5</v>
@@ -4193,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="AA31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB31" t="n">
         <v>17</v>
@@ -4205,7 +4205,7 @@
         <v>15</v>
       </c>
       <c r="AE31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>17</v>
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H32" t="n">
         <v>3.9</v>
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H33" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I33" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="J33" t="n">
         <v>1.09</v>
@@ -4410,58 +4410,58 @@
         <v>2.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S33" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T33" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="U33" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V33" t="n">
         <v>10</v>
       </c>
       <c r="W33" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X33" t="n">
         <v>25</v>
       </c>
       <c r="Y33" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z33" t="n">
         <v>6.1</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB33" t="n">
         <v>13.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD33" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF33" t="n">
         <v>9.75</v>
       </c>
       <c r="AG33" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AH33" t="n">
         <v>24</v>
       </c>
       <c r="AI33" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ33" t="n">
         <v>600</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -680,19 +680,19 @@
         <v>2.07</v>
       </c>
       <c r="R2" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="U2" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="V2" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W2" t="n">
         <v>16</v>
@@ -704,19 +704,19 @@
         <v>50</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
         <v>175</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -725,13 +725,13 @@
         <v>16</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="n">
         <v>60</v>
       </c>
       <c r="AI2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
         <v>101</v>
@@ -769,31 +769,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
         <v>1.5</v>
@@ -802,31 +802,31 @@
         <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
@@ -835,19 +835,19 @@
         <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
@@ -856,7 +856,7 @@
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
         <v>1.07</v>
@@ -918,10 +918,10 @@
         <v>1.73</v>
       </c>
       <c r="P4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R4" t="n">
         <v>1.83</v>
@@ -930,16 +930,16 @@
         <v>1.83</v>
       </c>
       <c r="T4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V4" t="n">
         <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -960,13 +960,13 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
         <v>29</v>
@@ -1040,7 +1040,7 @@
         <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q5" t="n">
         <v>2.2</v>
@@ -1052,7 +1052,7 @@
         <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U5" t="n">
         <v>21</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>1.05</v>
@@ -1162,7 +1162,7 @@
         <v>1.93</v>
       </c>
       <c r="P6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
         <v>2.75</v>
@@ -1174,19 +1174,19 @@
         <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>26</v>
@@ -1198,7 +1198,7 @@
         <v>6.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
         <v>41</v>
@@ -1213,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
@@ -1266,10 +1266,10 @@
         <v>2.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.36</v>
@@ -1284,10 +1284,10 @@
         <v>1.73</v>
       </c>
       <c r="P7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R7" t="n">
         <v>1.83</v>
@@ -1314,7 +1314,7 @@
         <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6.5</v>
@@ -1332,7 +1332,7 @@
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>29</v>
@@ -1379,46 +1379,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R8" t="n">
         <v>2.1</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.2</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
         <v>6.5</v>
@@ -1436,16 +1436,16 @@
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD8" t="n">
         <v>12</v>
@@ -1466,7 +1466,7 @@
         <v>51</v>
       </c>
       <c r="AJ8" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9">
@@ -1528,10 +1528,10 @@
         <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
         <v>2</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1656,13 +1656,13 @@
         <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U10" t="n">
         <v>11</v>
@@ -1683,7 +1683,7 @@
         <v>8.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="n">
         <v>17</v>
@@ -1704,7 +1704,7 @@
         <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>34</v>
@@ -1745,37 +1745,37 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="O11" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R11" t="n">
         <v>1.67</v>
@@ -1787,7 +1787,7 @@
         <v>15</v>
       </c>
       <c r="U11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V11" t="n">
         <v>15</v>
@@ -1802,10 +1802,10 @@
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB11" t="n">
         <v>15</v>
@@ -1814,7 +1814,7 @@
         <v>41</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -1826,13 +1826,13 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -1867,37 +1867,37 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="P12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R12" t="n">
         <v>1.95</v>
@@ -1924,7 +1924,7 @@
         <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
         <v>7</v>
@@ -1936,7 +1936,7 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -1954,7 +1954,7 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
@@ -2022,10 +2022,10 @@
         <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T13" t="n">
         <v>6</v>
@@ -2043,7 +2043,7 @@
         <v>29</v>
       </c>
       <c r="Y13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z13" t="n">
         <v>5.5</v>
@@ -2073,7 +2073,7 @@
         <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ13" t="n">
         <v>501</v>
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
@@ -2138,10 +2138,10 @@
         <v>1.67</v>
       </c>
       <c r="P14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
         <v>1.95</v>
@@ -2254,10 +2254,10 @@
         <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I16" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2370,31 +2370,31 @@
         <v>17</v>
       </c>
       <c r="L16" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O16" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U16" t="n">
         <v>26</v>
@@ -2412,7 +2412,7 @@
         <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
         <v>8.5</v>
@@ -2424,10 +2424,10 @@
         <v>41</v>
       </c>
       <c r="AD16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF16" t="n">
         <v>8.5</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>1.07</v>
@@ -2498,10 +2498,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2510,16 +2510,16 @@
         <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V17" t="n">
         <v>13</v>
@@ -2528,7 +2528,7 @@
         <v>41</v>
       </c>
       <c r="X17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y17" t="n">
         <v>41</v>
@@ -2546,25 +2546,25 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
         <v>9</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18">
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.36</v>
@@ -2641,7 +2641,7 @@
         <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
@@ -2659,7 +2659,7 @@
         <v>8.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
         <v>17</v>
@@ -2668,19 +2668,19 @@
         <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
         <v>41</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
         <v>41</v>
@@ -2948,7 +2948,7 @@
         <v>5.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
         <v>1.47</v>
@@ -2970,10 +2970,10 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S21" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2982,7 +2982,7 @@
         <v>29</v>
       </c>
       <c r="V21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="W21" t="n">
         <v>80</v>
@@ -3003,10 +3003,10 @@
         <v>12.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE21" t="n">
         <v>7</v>
@@ -3015,7 +3015,7 @@
         <v>6.9</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH21" t="n">
         <v>9.25</v>
@@ -3059,10 +3059,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
         <v>4.5</v>
@@ -3074,22 +3074,22 @@
         <v>13</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O22" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R22" t="n">
         <v>1.8</v>
@@ -3101,7 +3101,7 @@
         <v>7.5</v>
       </c>
       <c r="U22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V22" t="n">
         <v>8.5</v>
@@ -3113,10 +3113,10 @@
         <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA22" t="n">
         <v>7.5</v>
@@ -3131,7 +3131,7 @@
         <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
         <v>15</v>
@@ -3140,13 +3140,13 @@
         <v>51</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
@@ -3196,31 +3196,31 @@
         <v>13</v>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N23" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U23" t="n">
         <v>17</v>
@@ -3238,22 +3238,22 @@
         <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA23" t="n">
         <v>7</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
         <v>41</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
         <v>9</v>
@@ -3303,13 +3303,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
         <v>4.33</v>
       </c>
       <c r="I24" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>1.03</v>
@@ -3324,10 +3324,10 @@
         <v>4.33</v>
       </c>
       <c r="N24" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O24" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P24" t="n">
         <v>1.3</v>
@@ -3336,16 +3336,16 @@
         <v>3.4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U24" t="n">
         <v>8</v>
-      </c>
-      <c r="U24" t="n">
-        <v>7.5</v>
       </c>
       <c r="V24" t="n">
         <v>8.5</v>
@@ -3390,7 +3390,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
@@ -3425,19 +3425,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L25" t="n">
         <v>1.25</v>
@@ -3446,10 +3446,10 @@
         <v>3.75</v>
       </c>
       <c r="N25" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O25" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="P25" t="n">
         <v>1.36</v>
@@ -3458,31 +3458,31 @@
         <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T25" t="n">
         <v>7.5</v>
       </c>
       <c r="U25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V25" t="n">
         <v>8.5</v>
       </c>
       <c r="W25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA25" t="n">
         <v>7</v>
@@ -3497,13 +3497,13 @@
         <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH25" t="n">
         <v>34</v>
@@ -3547,13 +3547,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J26" t="n">
         <v>1.04</v>
@@ -3562,10 +3562,10 @@
         <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N26" t="n">
         <v>1.7</v>
@@ -3577,16 +3577,16 @@
         <v>1.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U26" t="n">
         <v>13</v>
@@ -3595,13 +3595,13 @@
         <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X26" t="n">
         <v>19</v>
       </c>
       <c r="Y26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z26" t="n">
         <v>13</v>
@@ -3610,31 +3610,31 @@
         <v>7</v>
       </c>
       <c r="AB26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC26" t="n">
         <v>41</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>26</v>
       </c>
       <c r="AJ26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -3669,13 +3669,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="H27" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="I27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3685,51 +3685,51 @@
         <v>1.23</v>
       </c>
       <c r="O27" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="S27" t="n">
         <v>1.59</v>
       </c>
       <c r="T27" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="U27" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="V27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="W27" t="n">
         <v>5.5</v>
       </c>
       <c r="X27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AB27" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC27" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD27" t="n">
         <v>90</v>
       </c>
       <c r="AE27" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AF27" t="n">
         <v>90</v>
@@ -3738,7 +3738,7 @@
         <v>101</v>
       </c>
       <c r="AH27" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AI27" t="n">
         <v>200</v>
@@ -4011,19 +4011,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L30" t="n">
         <v>1.44</v>
@@ -4032,10 +4032,10 @@
         <v>2.63</v>
       </c>
       <c r="N30" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P30" t="n">
         <v>1.53</v>
@@ -4044,10 +4044,10 @@
         <v>2.38</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T30" t="n">
         <v>6.5</v>
@@ -4059,16 +4059,16 @@
         <v>10</v>
       </c>
       <c r="W30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA30" t="n">
         <v>6</v>
@@ -4080,10 +4080,10 @@
         <v>67</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
@@ -4133,67 +4133,67 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
         <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K31" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="O31" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="P31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V31" t="n">
         <v>8.5</v>
       </c>
       <c r="W31" t="n">
+        <v>11</v>
+      </c>
+      <c r="X31" t="n">
         <v>12</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z31" t="n">
         <v>13</v>
       </c>
-      <c r="Y31" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>12</v>
-      </c>
       <c r="AA31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB31" t="n">
         <v>17</v>
@@ -4220,7 +4220,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32">
@@ -4258,28 +4258,28 @@
         <v>1.44</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
         <v>7.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N32" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P32" t="n">
         <v>1.4</v>
@@ -4303,7 +4303,7 @@
         <v>9</v>
       </c>
       <c r="W32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
@@ -4312,7 +4312,7 @@
         <v>34</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA32" t="n">
         <v>8</v>
@@ -4324,7 +4324,7 @@
         <v>81</v>
       </c>
       <c r="AD32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE32" t="n">
         <v>41</v>
@@ -4377,19 +4377,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I33" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="J33" t="n">
         <v>1.09</v>
       </c>
       <c r="K33" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="L33" t="n">
         <v>1.39</v>
@@ -4407,52 +4407,52 @@
         <v>1.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R33" t="n">
         <v>1.8</v>
       </c>
       <c r="S33" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T33" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="U33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W33" t="n">
+        <v>32</v>
+      </c>
+      <c r="X33" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB33" t="n">
         <v>14</v>
-      </c>
-      <c r="V33" t="n">
-        <v>10</v>
-      </c>
-      <c r="W33" t="n">
-        <v>35</v>
-      </c>
-      <c r="X33" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>13.5</v>
       </c>
       <c r="AC33" t="n">
         <v>70</v>
       </c>
       <c r="AD33" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG33" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
         <v>1.07</v>
@@ -796,28 +796,28 @@
         <v>1.67</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U3" t="n">
         <v>11</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -826,7 +826,7 @@
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
@@ -847,10 +847,10 @@
         <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>34</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
         <v>1.07</v>
@@ -930,7 +930,7 @@
         <v>1.83</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U4" t="n">
         <v>12</v>
@@ -939,7 +939,7 @@
         <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -966,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>29</v>
@@ -1016,49 +1016,49 @@
         <v>4.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="M5" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.44</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U5" t="n">
         <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W5" t="n">
         <v>51</v>
@@ -1067,10 +1067,10 @@
         <v>51</v>
       </c>
       <c r="Y5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
@@ -1082,13 +1082,13 @@
         <v>101</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AE5" t="n">
         <v>7</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1135,31 +1135,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="O6" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1168,16 +1168,16 @@
         <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
       </c>
       <c r="U6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V6" t="n">
         <v>9</v>
@@ -1189,10 +1189,10 @@
         <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
         <v>6.5</v>
@@ -1201,13 +1201,13 @@
         <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD6" t="n">
         <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1216,13 +1216,13 @@
         <v>34</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7">
@@ -1260,46 +1260,46 @@
         <v>2.45</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="N7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="n">
         <v>2.1</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V7" t="n">
         <v>10</v>
@@ -1308,43 +1308,43 @@
         <v>23</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH7" t="n">
         <v>29</v>
       </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8">
@@ -1382,28 +1382,28 @@
         <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
         <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="P8" t="n">
         <v>1.44</v>
@@ -1412,13 +1412,13 @@
         <v>2.63</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U8" t="n">
         <v>6.5</v>
@@ -1436,7 +1436,7 @@
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
         <v>7.5</v>
@@ -1445,7 +1445,7 @@
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="n">
         <v>12</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
         <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1552,16 +1552,16 @@
         <v>23</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="n">
         <v>7.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
         <v>17</v>
@@ -1579,10 +1579,10 @@
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>41</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J10" t="n">
         <v>1.08</v>
@@ -1665,16 +1665,16 @@
         <v>7.5</v>
       </c>
       <c r="U10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V10" t="n">
         <v>10</v>
       </c>
       <c r="W10" t="n">
+        <v>26</v>
+      </c>
+      <c r="X10" t="n">
         <v>23</v>
-      </c>
-      <c r="X10" t="n">
-        <v>21</v>
       </c>
       <c r="Y10" t="n">
         <v>34</v>
@@ -1686,22 +1686,22 @@
         <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
         <v>51</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
         <v>23</v>
@@ -1745,58 +1745,58 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.62</v>
       </c>
-      <c r="O11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
       </c>
       <c r="U11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y11" t="n">
         <v>34</v>
@@ -1805,7 +1805,7 @@
         <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB11" t="n">
         <v>15</v>
@@ -1817,16 +1817,16 @@
         <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
         <v>8.5</v>
       </c>
       <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
         <v>13</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>21</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1900,22 +1900,22 @@
         <v>2.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
         <v>15</v>
@@ -1927,22 +1927,22 @@
         <v>9.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF12" t="n">
         <v>17</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>51</v>
@@ -1954,7 +1954,7 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13">
@@ -2004,10 +2004,10 @@
         <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N13" t="n">
         <v>2.88</v>
@@ -2111,46 +2111,46 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H14" t="n">
         <v>3.2</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I14" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N14" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U14" t="n">
         <v>15</v>
@@ -2168,19 +2168,19 @@
         <v>41</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB14" t="n">
         <v>17</v>
       </c>
       <c r="AC14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
@@ -2192,13 +2192,13 @@
         <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15">
@@ -2254,10 +2254,10 @@
         <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O15" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2358,7 +2358,7 @@
         <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
         <v>1.62</v>
@@ -2367,34 +2367,34 @@
         <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N16" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="O16" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="P16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U16" t="n">
         <v>26</v>
@@ -2412,7 +2412,7 @@
         <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
         <v>8.5</v>
@@ -2424,10 +2424,10 @@
         <v>41</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF16" t="n">
         <v>8.5</v>
@@ -2442,7 +2442,7 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
@@ -2489,7 +2489,7 @@
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2599,31 +2599,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N18" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2632,22 +2632,22 @@
         <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
         <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
         <v>17</v>
@@ -2656,7 +2656,7 @@
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA18" t="n">
         <v>6.5</v>
@@ -2665,28 +2665,28 @@
         <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>41</v>
       </c>
       <c r="AH18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
         <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19">
@@ -4255,13 +4255,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H32" t="n">
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
@@ -4288,13 +4288,13 @@
         <v>2.75</v>
       </c>
       <c r="R32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S32" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U32" t="n">
         <v>6</v>
@@ -4318,7 +4318,7 @@
         <v>8</v>
       </c>
       <c r="AB32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC32" t="n">
         <v>81</v>
@@ -4333,10 +4333,10 @@
         <v>23</v>
       </c>
       <c r="AG32" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI32" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I2" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="J2" t="n">
         <v>1.12</v>
@@ -677,55 +677,55 @@
         <v>1.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="V2" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA2" t="n">
         <v>6</v>
       </c>
-      <c r="AA2" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD2" t="n">
         <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
         <v>16</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-08.xlsx
@@ -647,31 +647,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H2" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="K2" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M2" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="N2" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
         <v>1.6</v>
@@ -680,55 +680,55 @@
         <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="U2" t="n">
         <v>7.7</v>
       </c>
       <c r="V2" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W2" t="n">
         <v>17</v>
       </c>
       <c r="X2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="n">
         <v>20</v>
       </c>
-      <c r="Y2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>22</v>
-      </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI2" t="n">
         <v>80</v>
